--- a/참고자료/매입매출데이터(2019-10-17).xlsx
+++ b/참고자료/매입매출데이터(2019-10-17).xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="원본" sheetId="1" r:id="rId1"/>
     <sheet name="매입" sheetId="2" r:id="rId2"/>
     <sheet name="매출" sheetId="3" r:id="rId3"/>
     <sheet name="상품정보" sheetId="4" r:id="rId4"/>
+    <sheet name="거래처정보" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="iolist" localSheetId="1">매입!$C$2:$H$233</definedName>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5462" uniqueCount="1774">
   <si>
     <t>매입매출 원장</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4694,6 +4695,740 @@
   </si>
   <si>
     <t>P00393</t>
+  </si>
+  <si>
+    <t>거래처명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0003</t>
+  </si>
+  <si>
+    <t>D0004</t>
+  </si>
+  <si>
+    <t>D0005</t>
+  </si>
+  <si>
+    <t>D0006</t>
+  </si>
+  <si>
+    <t>D0007</t>
+  </si>
+  <si>
+    <t>D0008</t>
+  </si>
+  <si>
+    <t>D0009</t>
+  </si>
+  <si>
+    <t>D0010</t>
+  </si>
+  <si>
+    <t>D0011</t>
+  </si>
+  <si>
+    <t>D0012</t>
+  </si>
+  <si>
+    <t>D0013</t>
+  </si>
+  <si>
+    <t>D0014</t>
+  </si>
+  <si>
+    <t>D0015</t>
+  </si>
+  <si>
+    <t>D0016</t>
+  </si>
+  <si>
+    <t>D0017</t>
+  </si>
+  <si>
+    <t>D0018</t>
+  </si>
+  <si>
+    <t>D0019</t>
+  </si>
+  <si>
+    <t>D0020</t>
+  </si>
+  <si>
+    <t>D0021</t>
+  </si>
+  <si>
+    <t>D0022</t>
+  </si>
+  <si>
+    <t>D0023</t>
+  </si>
+  <si>
+    <t>D0024</t>
+  </si>
+  <si>
+    <t>D0025</t>
+  </si>
+  <si>
+    <t>D0026</t>
+  </si>
+  <si>
+    <t>D0027</t>
+  </si>
+  <si>
+    <t>D0028</t>
+  </si>
+  <si>
+    <t>D0029</t>
+  </si>
+  <si>
+    <t>D0030</t>
+  </si>
+  <si>
+    <t>D0031</t>
+  </si>
+  <si>
+    <t>D0032</t>
+  </si>
+  <si>
+    <t>D0033</t>
+  </si>
+  <si>
+    <t>D0034</t>
+  </si>
+  <si>
+    <t>D0035</t>
+  </si>
+  <si>
+    <t>D0036</t>
+  </si>
+  <si>
+    <t>D0037</t>
+  </si>
+  <si>
+    <t>D0038</t>
+  </si>
+  <si>
+    <t>D0039</t>
+  </si>
+  <si>
+    <t>D0040</t>
+  </si>
+  <si>
+    <t>D0041</t>
+  </si>
+  <si>
+    <t>D0042</t>
+  </si>
+  <si>
+    <t>D0043</t>
+  </si>
+  <si>
+    <t>D0044</t>
+  </si>
+  <si>
+    <t>D0045</t>
+  </si>
+  <si>
+    <t>D0046</t>
+  </si>
+  <si>
+    <t>D0047</t>
+  </si>
+  <si>
+    <t>D0048</t>
+  </si>
+  <si>
+    <t>D0049</t>
+  </si>
+  <si>
+    <t>D0050</t>
+  </si>
+  <si>
+    <t>D0051</t>
+  </si>
+  <si>
+    <t>D0052</t>
+  </si>
+  <si>
+    <t>D0053</t>
+  </si>
+  <si>
+    <t>D0054</t>
+  </si>
+  <si>
+    <t>D0055</t>
+  </si>
+  <si>
+    <t>D0056</t>
+  </si>
+  <si>
+    <t>D0057</t>
+  </si>
+  <si>
+    <t>D0058</t>
+  </si>
+  <si>
+    <t>D0059</t>
+  </si>
+  <si>
+    <t>D0060</t>
+  </si>
+  <si>
+    <t>D0061</t>
+  </si>
+  <si>
+    <t>D0062</t>
+  </si>
+  <si>
+    <t>D0063</t>
+  </si>
+  <si>
+    <t>D0064</t>
+  </si>
+  <si>
+    <t>D0065</t>
+  </si>
+  <si>
+    <t>D0066</t>
+  </si>
+  <si>
+    <t>D0067</t>
+  </si>
+  <si>
+    <t>D0068</t>
+  </si>
+  <si>
+    <t>D0069</t>
+  </si>
+  <si>
+    <t>D0070</t>
+  </si>
+  <si>
+    <t>D0071</t>
+  </si>
+  <si>
+    <t>D0072</t>
+  </si>
+  <si>
+    <t>D0073</t>
+  </si>
+  <si>
+    <t>D0074</t>
+  </si>
+  <si>
+    <t>D0075</t>
+  </si>
+  <si>
+    <t>D0076</t>
+  </si>
+  <si>
+    <t>D0077</t>
+  </si>
+  <si>
+    <t>D0078</t>
+  </si>
+  <si>
+    <t>D0079</t>
+  </si>
+  <si>
+    <t>D0080</t>
+  </si>
+  <si>
+    <t>D0081</t>
+  </si>
+  <si>
+    <t>D0082</t>
+  </si>
+  <si>
+    <t>D0083</t>
+  </si>
+  <si>
+    <t>D0084</t>
+  </si>
+  <si>
+    <t>D0085</t>
+  </si>
+  <si>
+    <t>D0086</t>
+  </si>
+  <si>
+    <t>D0087</t>
+  </si>
+  <si>
+    <t>D0088</t>
+  </si>
+  <si>
+    <t>D0089</t>
+  </si>
+  <si>
+    <t>D0090</t>
+  </si>
+  <si>
+    <t>D0091</t>
+  </si>
+  <si>
+    <t>D0092</t>
+  </si>
+  <si>
+    <t>D0093</t>
+  </si>
+  <si>
+    <t>D0094</t>
+  </si>
+  <si>
+    <t>D0095</t>
+  </si>
+  <si>
+    <t>D0096</t>
+  </si>
+  <si>
+    <t>D0097</t>
+  </si>
+  <si>
+    <t>D0098</t>
+  </si>
+  <si>
+    <t>D0099</t>
+  </si>
+  <si>
+    <t>D0100</t>
+  </si>
+  <si>
+    <t>D0101</t>
+  </si>
+  <si>
+    <t>D0102</t>
+  </si>
+  <si>
+    <t>D0103</t>
+  </si>
+  <si>
+    <t>D0104</t>
+  </si>
+  <si>
+    <t>D0105</t>
+  </si>
+  <si>
+    <t>D0106</t>
+  </si>
+  <si>
+    <t>D0107</t>
+  </si>
+  <si>
+    <t>D0108</t>
+  </si>
+  <si>
+    <t>D0109</t>
+  </si>
+  <si>
+    <t>D0110</t>
+  </si>
+  <si>
+    <t>D0111</t>
+  </si>
+  <si>
+    <t>D0112</t>
+  </si>
+  <si>
+    <t>D0113</t>
+  </si>
+  <si>
+    <t>D0114</t>
+  </si>
+  <si>
+    <t>D0115</t>
+  </si>
+  <si>
+    <t>D0116</t>
+  </si>
+  <si>
+    <t>D0117</t>
+  </si>
+  <si>
+    <t>D0118</t>
+  </si>
+  <si>
+    <t>D0119</t>
+  </si>
+  <si>
+    <t>D0120</t>
+  </si>
+  <si>
+    <t>D0121</t>
+  </si>
+  <si>
+    <t>D0122</t>
+  </si>
+  <si>
+    <t>D0123</t>
+  </si>
+  <si>
+    <t>D0124</t>
+  </si>
+  <si>
+    <t>D0125</t>
+  </si>
+  <si>
+    <t>D0126</t>
+  </si>
+  <si>
+    <t>D0127</t>
+  </si>
+  <si>
+    <t>D0128</t>
+  </si>
+  <si>
+    <t>D0129</t>
+  </si>
+  <si>
+    <t>D0130</t>
+  </si>
+  <si>
+    <t>D0131</t>
+  </si>
+  <si>
+    <t>D0132</t>
+  </si>
+  <si>
+    <t>D0133</t>
+  </si>
+  <si>
+    <t>D0134</t>
+  </si>
+  <si>
+    <t>D0135</t>
+  </si>
+  <si>
+    <t>D0136</t>
+  </si>
+  <si>
+    <t>D0137</t>
+  </si>
+  <si>
+    <t>D0138</t>
+  </si>
+  <si>
+    <t>D0139</t>
+  </si>
+  <si>
+    <t>D0140</t>
+  </si>
+  <si>
+    <t>D0141</t>
+  </si>
+  <si>
+    <t>D0142</t>
+  </si>
+  <si>
+    <t>D0143</t>
+  </si>
+  <si>
+    <t>D0144</t>
+  </si>
+  <si>
+    <t>D0145</t>
+  </si>
+  <si>
+    <t>D0146</t>
+  </si>
+  <si>
+    <t>D0147</t>
+  </si>
+  <si>
+    <t>D0148</t>
+  </si>
+  <si>
+    <t>D0149</t>
+  </si>
+  <si>
+    <t>D0150</t>
+  </si>
+  <si>
+    <t>D0151</t>
+  </si>
+  <si>
+    <t>D0152</t>
+  </si>
+  <si>
+    <t>D0153</t>
+  </si>
+  <si>
+    <t>D0154</t>
+  </si>
+  <si>
+    <t>D0155</t>
+  </si>
+  <si>
+    <t>D0156</t>
+  </si>
+  <si>
+    <t>D0157</t>
+  </si>
+  <si>
+    <t>D0158</t>
+  </si>
+  <si>
+    <t>D0159</t>
+  </si>
+  <si>
+    <t>D0160</t>
+  </si>
+  <si>
+    <t>D0161</t>
+  </si>
+  <si>
+    <t>D0162</t>
+  </si>
+  <si>
+    <t>D0163</t>
+  </si>
+  <si>
+    <t>D0164</t>
+  </si>
+  <si>
+    <t>D0165</t>
+  </si>
+  <si>
+    <t>D0166</t>
+  </si>
+  <si>
+    <t>D0167</t>
+  </si>
+  <si>
+    <t>D0168</t>
+  </si>
+  <si>
+    <t>D0169</t>
+  </si>
+  <si>
+    <t>D0170</t>
+  </si>
+  <si>
+    <t>D0171</t>
+  </si>
+  <si>
+    <t>D0172</t>
+  </si>
+  <si>
+    <t>D0173</t>
+  </si>
+  <si>
+    <t>D0174</t>
+  </si>
+  <si>
+    <t>D0175</t>
+  </si>
+  <si>
+    <t>D0176</t>
+  </si>
+  <si>
+    <t>D0177</t>
+  </si>
+  <si>
+    <t>D0178</t>
+  </si>
+  <si>
+    <t>D0179</t>
+  </si>
+  <si>
+    <t>D0180</t>
+  </si>
+  <si>
+    <t>D0181</t>
+  </si>
+  <si>
+    <t>D0182</t>
+  </si>
+  <si>
+    <t>D0183</t>
+  </si>
+  <si>
+    <t>D0184</t>
+  </si>
+  <si>
+    <t>D0185</t>
+  </si>
+  <si>
+    <t>D0186</t>
+  </si>
+  <si>
+    <t>D0187</t>
+  </si>
+  <si>
+    <t>D0188</t>
+  </si>
+  <si>
+    <t>D0189</t>
+  </si>
+  <si>
+    <t>D0190</t>
+  </si>
+  <si>
+    <t>D0191</t>
+  </si>
+  <si>
+    <t>D0192</t>
+  </si>
+  <si>
+    <t>D0193</t>
+  </si>
+  <si>
+    <t>D0194</t>
+  </si>
+  <si>
+    <t>D0195</t>
+  </si>
+  <si>
+    <t>D0196</t>
+  </si>
+  <si>
+    <t>D0197</t>
+  </si>
+  <si>
+    <t>D0198</t>
+  </si>
+  <si>
+    <t>D0199</t>
+  </si>
+  <si>
+    <t>D0200</t>
+  </si>
+  <si>
+    <t>D0201</t>
+  </si>
+  <si>
+    <t>D0202</t>
+  </si>
+  <si>
+    <t>D0203</t>
+  </si>
+  <si>
+    <t>D0204</t>
+  </si>
+  <si>
+    <t>D0205</t>
+  </si>
+  <si>
+    <t>D0206</t>
+  </si>
+  <si>
+    <t>D0207</t>
+  </si>
+  <si>
+    <t>D0208</t>
+  </si>
+  <si>
+    <t>D0209</t>
+  </si>
+  <si>
+    <t>D0210</t>
+  </si>
+  <si>
+    <t>D0211</t>
+  </si>
+  <si>
+    <t>D0212</t>
+  </si>
+  <si>
+    <t>D0213</t>
+  </si>
+  <si>
+    <t>D0214</t>
+  </si>
+  <si>
+    <t>D0215</t>
+  </si>
+  <si>
+    <t>D0216</t>
+  </si>
+  <si>
+    <t>D0217</t>
+  </si>
+  <si>
+    <t>D0218</t>
+  </si>
+  <si>
+    <t>D0219</t>
+  </si>
+  <si>
+    <t>D0220</t>
+  </si>
+  <si>
+    <t>D0221</t>
+  </si>
+  <si>
+    <t>D0222</t>
+  </si>
+  <si>
+    <t>D0223</t>
+  </si>
+  <si>
+    <t>D0224</t>
+  </si>
+  <si>
+    <t>D0225</t>
+  </si>
+  <si>
+    <t>D0226</t>
+  </si>
+  <si>
+    <t>D0227</t>
+  </si>
+  <si>
+    <t>D0228</t>
+  </si>
+  <si>
+    <t>D0229</t>
+  </si>
+  <si>
+    <t>D0230</t>
+  </si>
+  <si>
+    <t>D0231</t>
+  </si>
+  <si>
+    <t>D0232</t>
+  </si>
+  <si>
+    <t>D0233</t>
+  </si>
+  <si>
+    <t>D0234</t>
+  </si>
+  <si>
+    <t>D0235</t>
+  </si>
+  <si>
+    <t>D0236</t>
   </si>
 </sst>
 </file>
@@ -4905,7 +5640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4950,6 +5685,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5236,7 +5974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -22097,7 +22835,7 @@
         <v>497</v>
       </c>
       <c r="I2" s="8">
-        <f>H2*G2</f>
+        <f t="shared" ref="I2:I65" si="0">H2*G2</f>
         <v>32802</v>
       </c>
     </row>
@@ -22127,7 +22865,7 @@
         <v>245</v>
       </c>
       <c r="I3" s="8">
-        <f>H3*G3</f>
+        <f t="shared" si="0"/>
         <v>21805</v>
       </c>
     </row>
@@ -22157,7 +22895,7 @@
         <v>295</v>
       </c>
       <c r="I4" s="8">
-        <f>H4*G4</f>
+        <f t="shared" si="0"/>
         <v>27730</v>
       </c>
     </row>
@@ -22187,7 +22925,7 @@
         <v>2745</v>
       </c>
       <c r="I5" s="8">
-        <f>H5*G5</f>
+        <f t="shared" si="0"/>
         <v>238815</v>
       </c>
     </row>
@@ -22217,7 +22955,7 @@
         <v>155</v>
       </c>
       <c r="I6" s="8">
-        <f>H6*G6</f>
+        <f t="shared" si="0"/>
         <v>14570</v>
       </c>
     </row>
@@ -22247,7 +22985,7 @@
         <v>622</v>
       </c>
       <c r="I7" s="8">
-        <f>H7*G7</f>
+        <f t="shared" si="0"/>
         <v>41052</v>
       </c>
     </row>
@@ -22277,7 +23015,7 @@
         <v>1885</v>
       </c>
       <c r="I8" s="8">
-        <f>H8*G8</f>
+        <f t="shared" si="0"/>
         <v>188500</v>
       </c>
     </row>
@@ -22307,7 +23045,7 @@
         <v>491</v>
       </c>
       <c r="I9" s="8">
-        <f>H9*G9</f>
+        <f t="shared" si="0"/>
         <v>41244</v>
       </c>
     </row>
@@ -22337,7 +23075,7 @@
         <v>591</v>
       </c>
       <c r="I10" s="8">
-        <f>H10*G10</f>
+        <f t="shared" si="0"/>
         <v>46098</v>
       </c>
     </row>
@@ -22367,7 +23105,7 @@
         <v>1520</v>
       </c>
       <c r="I11" s="8">
-        <f>H11*G11</f>
+        <f t="shared" si="0"/>
         <v>141360</v>
       </c>
     </row>
@@ -22397,7 +23135,7 @@
         <v>8240</v>
       </c>
       <c r="I12" s="8">
-        <f>H12*G12</f>
+        <f t="shared" si="0"/>
         <v>601520</v>
       </c>
     </row>
@@ -22427,7 +23165,7 @@
         <v>1844</v>
       </c>
       <c r="I13" s="8">
-        <f>H13*G13</f>
+        <f t="shared" si="0"/>
         <v>164116</v>
       </c>
     </row>
@@ -22457,7 +23195,7 @@
         <v>409</v>
       </c>
       <c r="I14" s="8">
-        <f>H14*G14</f>
+        <f t="shared" si="0"/>
         <v>29857</v>
       </c>
     </row>
@@ -22487,7 +23225,7 @@
         <v>2196</v>
       </c>
       <c r="I15" s="8">
-        <f>H15*G15</f>
+        <f t="shared" si="0"/>
         <v>171288</v>
       </c>
     </row>
@@ -22517,7 +23255,7 @@
         <v>655</v>
       </c>
       <c r="I16" s="8">
-        <f>H16*G16</f>
+        <f t="shared" si="0"/>
         <v>44540</v>
       </c>
     </row>
@@ -22547,7 +23285,7 @@
         <v>311</v>
       </c>
       <c r="I17" s="8">
-        <f>H17*G17</f>
+        <f t="shared" si="0"/>
         <v>24569</v>
       </c>
     </row>
@@ -22577,7 +23315,7 @@
         <v>436</v>
       </c>
       <c r="I18" s="8">
-        <f>H18*G18</f>
+        <f t="shared" si="0"/>
         <v>27904</v>
       </c>
     </row>
@@ -22607,7 +23345,7 @@
         <v>647</v>
       </c>
       <c r="I19" s="8">
-        <f>H19*G19</f>
+        <f t="shared" si="0"/>
         <v>38820</v>
       </c>
     </row>
@@ -22637,7 +23375,7 @@
         <v>2065</v>
       </c>
       <c r="I20" s="8">
-        <f>H20*G20</f>
+        <f t="shared" si="0"/>
         <v>115640</v>
       </c>
     </row>
@@ -22667,7 +23405,7 @@
         <v>887</v>
       </c>
       <c r="I21" s="8">
-        <f>H21*G21</f>
+        <f t="shared" si="0"/>
         <v>78056</v>
       </c>
     </row>
@@ -22697,7 +23435,7 @@
         <v>245</v>
       </c>
       <c r="I22" s="8">
-        <f>H22*G22</f>
+        <f t="shared" si="0"/>
         <v>12250</v>
       </c>
     </row>
@@ -22727,7 +23465,7 @@
         <v>1844</v>
       </c>
       <c r="I23" s="8">
-        <f>H23*G23</f>
+        <f t="shared" si="0"/>
         <v>141988</v>
       </c>
     </row>
@@ -22757,7 +23495,7 @@
         <v>286</v>
       </c>
       <c r="I24" s="8">
-        <f>H24*G24</f>
+        <f t="shared" si="0"/>
         <v>15444</v>
       </c>
     </row>
@@ -22787,7 +23525,7 @@
         <v>327</v>
       </c>
       <c r="I25" s="8">
-        <f>H25*G25</f>
+        <f t="shared" si="0"/>
         <v>18966</v>
       </c>
     </row>
@@ -22817,7 +23555,7 @@
         <v>436</v>
       </c>
       <c r="I26" s="8">
-        <f>H26*G26</f>
+        <f t="shared" si="0"/>
         <v>34008</v>
       </c>
     </row>
@@ -22847,7 +23585,7 @@
         <v>2049</v>
       </c>
       <c r="I27" s="8">
-        <f>H27*G27</f>
+        <f t="shared" si="0"/>
         <v>147528</v>
       </c>
     </row>
@@ -22877,7 +23615,7 @@
         <v>614</v>
       </c>
       <c r="I28" s="8">
-        <f>H28*G28</f>
+        <f t="shared" si="0"/>
         <v>59558</v>
       </c>
     </row>
@@ -22907,7 +23645,7 @@
         <v>4500</v>
       </c>
       <c r="I29" s="8">
-        <f>H29*G29</f>
+        <f t="shared" si="0"/>
         <v>234000</v>
       </c>
     </row>
@@ -22937,7 +23675,7 @@
         <v>245</v>
       </c>
       <c r="I30" s="8">
-        <f>H30*G30</f>
+        <f t="shared" si="0"/>
         <v>24500</v>
       </c>
     </row>
@@ -22967,7 +23705,7 @@
         <v>655</v>
       </c>
       <c r="I31" s="8">
-        <f>H31*G31</f>
+        <f t="shared" si="0"/>
         <v>56985</v>
       </c>
     </row>
@@ -22997,7 +23735,7 @@
         <v>300</v>
       </c>
       <c r="I32" s="8">
-        <f>H32*G32</f>
+        <f t="shared" si="0"/>
         <v>26700</v>
       </c>
     </row>
@@ -23027,7 +23765,7 @@
         <v>409</v>
       </c>
       <c r="I33" s="8">
-        <f>H33*G33</f>
+        <f t="shared" si="0"/>
         <v>29857</v>
       </c>
     </row>
@@ -23057,7 +23795,7 @@
         <v>1311</v>
       </c>
       <c r="I34" s="8">
-        <f>H34*G34</f>
+        <f t="shared" si="0"/>
         <v>106191</v>
       </c>
     </row>
@@ -23087,7 +23825,7 @@
         <v>655</v>
       </c>
       <c r="I35" s="8">
-        <f>H35*G35</f>
+        <f t="shared" si="0"/>
         <v>60915</v>
       </c>
     </row>
@@ -23117,7 +23855,7 @@
         <v>384</v>
       </c>
       <c r="I36" s="8">
-        <f>H36*G36</f>
+        <f t="shared" si="0"/>
         <v>29952</v>
       </c>
     </row>
@@ -23147,7 +23885,7 @@
         <v>1647</v>
       </c>
       <c r="I37" s="8">
-        <f>H37*G37</f>
+        <f t="shared" si="0"/>
         <v>116937</v>
       </c>
     </row>
@@ -23177,7 +23915,7 @@
         <v>327</v>
       </c>
       <c r="I38" s="8">
-        <f>H38*G38</f>
+        <f t="shared" si="0"/>
         <v>17658</v>
       </c>
     </row>
@@ -23207,7 +23945,7 @@
         <v>655</v>
       </c>
       <c r="I39" s="8">
-        <f>H39*G39</f>
+        <f t="shared" si="0"/>
         <v>65500</v>
       </c>
     </row>
@@ -23237,7 +23975,7 @@
         <v>2745</v>
       </c>
       <c r="I40" s="8">
-        <f>H40*G40</f>
+        <f t="shared" si="0"/>
         <v>241560</v>
       </c>
     </row>
@@ -23267,7 +24005,7 @@
         <v>491</v>
       </c>
       <c r="I41" s="8">
-        <f>H41*G41</f>
+        <f t="shared" si="0"/>
         <v>34861</v>
       </c>
     </row>
@@ -23297,7 +24035,7 @@
         <v>311</v>
       </c>
       <c r="I42" s="8">
-        <f>H42*G42</f>
+        <f t="shared" si="0"/>
         <v>21459</v>
       </c>
     </row>
@@ -23327,7 +24065,7 @@
         <v>2049</v>
       </c>
       <c r="I43" s="8">
-        <f>H43*G43</f>
+        <f t="shared" si="0"/>
         <v>180312</v>
       </c>
     </row>
@@ -23357,7 +24095,7 @@
         <v>327</v>
       </c>
       <c r="I44" s="8">
-        <f>H44*G44</f>
+        <f t="shared" si="0"/>
         <v>22563</v>
       </c>
     </row>
@@ -23387,7 +24125,7 @@
         <v>655</v>
       </c>
       <c r="I45" s="8">
-        <f>H45*G45</f>
+        <f t="shared" si="0"/>
         <v>36025</v>
       </c>
     </row>
@@ -23417,7 +24155,7 @@
         <v>887</v>
       </c>
       <c r="I46" s="8">
-        <f>H46*G46</f>
+        <f t="shared" si="0"/>
         <v>79830</v>
       </c>
     </row>
@@ -23447,7 +24185,7 @@
         <v>650</v>
       </c>
       <c r="I47" s="8">
-        <f>H47*G47</f>
+        <f t="shared" si="0"/>
         <v>53300</v>
       </c>
     </row>
@@ -23477,7 +24215,7 @@
         <v>1844</v>
       </c>
       <c r="I48" s="8">
-        <f>H48*G48</f>
+        <f t="shared" si="0"/>
         <v>154896</v>
       </c>
     </row>
@@ -23507,7 +24245,7 @@
         <v>655</v>
       </c>
       <c r="I49" s="8">
-        <f>H49*G49</f>
+        <f t="shared" si="0"/>
         <v>62225</v>
       </c>
     </row>
@@ -23537,7 +24275,7 @@
         <v>573</v>
       </c>
       <c r="I50" s="8">
-        <f>H50*G50</f>
+        <f t="shared" si="0"/>
         <v>50997</v>
       </c>
     </row>
@@ -23567,7 +24305,7 @@
         <v>7377</v>
       </c>
       <c r="I51" s="8">
-        <f>H51*G51</f>
+        <f t="shared" si="0"/>
         <v>663930</v>
       </c>
     </row>
@@ -23597,7 +24335,7 @@
         <v>384</v>
       </c>
       <c r="I52" s="8">
-        <f>H52*G52</f>
+        <f t="shared" si="0"/>
         <v>29184</v>
       </c>
     </row>
@@ -23627,7 +24365,7 @@
         <v>204</v>
       </c>
       <c r="I53" s="8">
-        <f>H53*G53</f>
+        <f t="shared" si="0"/>
         <v>20400</v>
       </c>
     </row>
@@ -23657,7 +24395,7 @@
         <v>5778</v>
       </c>
       <c r="I54" s="8">
-        <f>H54*G54</f>
+        <f t="shared" si="0"/>
         <v>525798</v>
       </c>
     </row>
@@ -23687,7 +24425,7 @@
         <v>491</v>
       </c>
       <c r="I55" s="8">
-        <f>H55*G55</f>
+        <f t="shared" si="0"/>
         <v>43699</v>
       </c>
     </row>
@@ -23717,7 +24455,7 @@
         <v>1803</v>
       </c>
       <c r="I56" s="8">
-        <f>H56*G56</f>
+        <f t="shared" si="0"/>
         <v>97362</v>
       </c>
     </row>
@@ -23747,7 +24485,7 @@
         <v>901</v>
       </c>
       <c r="I57" s="8">
-        <f>H57*G57</f>
+        <f t="shared" si="0"/>
         <v>65773</v>
       </c>
     </row>
@@ -23777,7 +24515,7 @@
         <v>311</v>
       </c>
       <c r="I58" s="8">
-        <f>H58*G58</f>
+        <f t="shared" si="0"/>
         <v>22703</v>
       </c>
     </row>
@@ -23807,7 +24545,7 @@
         <v>819</v>
       </c>
       <c r="I59" s="8">
-        <f>H59*G59</f>
+        <f t="shared" si="0"/>
         <v>40950</v>
       </c>
     </row>
@@ -23837,7 +24575,7 @@
         <v>976</v>
       </c>
       <c r="I60" s="8">
-        <f>H60*G60</f>
+        <f t="shared" si="0"/>
         <v>53680</v>
       </c>
     </row>
@@ -23867,7 +24605,7 @@
         <v>286</v>
       </c>
       <c r="I61" s="8">
-        <f>H61*G61</f>
+        <f t="shared" si="0"/>
         <v>23166</v>
       </c>
     </row>
@@ -23897,7 +24635,7 @@
         <v>2622</v>
       </c>
       <c r="I62" s="8">
-        <f>H62*G62</f>
+        <f t="shared" si="0"/>
         <v>167808</v>
       </c>
     </row>
@@ -23927,7 +24665,7 @@
         <v>983</v>
       </c>
       <c r="I63" s="8">
-        <f>H63*G63</f>
+        <f t="shared" si="0"/>
         <v>96334</v>
       </c>
     </row>
@@ -23957,7 +24695,7 @@
         <v>2407</v>
       </c>
       <c r="I64" s="8">
-        <f>H64*G64</f>
+        <f t="shared" si="0"/>
         <v>149234</v>
       </c>
     </row>
@@ -23987,7 +24725,7 @@
         <v>409</v>
       </c>
       <c r="I65" s="8">
-        <f>H65*G65</f>
+        <f t="shared" si="0"/>
         <v>24131</v>
       </c>
     </row>
@@ -24017,7 +24755,7 @@
         <v>586</v>
       </c>
       <c r="I66" s="8">
-        <f>H66*G66</f>
+        <f t="shared" ref="I66:I129" si="1">H66*G66</f>
         <v>54498</v>
       </c>
     </row>
@@ -24047,7 +24785,7 @@
         <v>655</v>
       </c>
       <c r="I67" s="8">
-        <f>H67*G67</f>
+        <f t="shared" si="1"/>
         <v>47160</v>
       </c>
     </row>
@@ -24077,7 +24815,7 @@
         <v>344</v>
       </c>
       <c r="I68" s="8">
-        <f>H68*G68</f>
+        <f t="shared" si="1"/>
         <v>28208</v>
       </c>
     </row>
@@ -24107,7 +24845,7 @@
         <v>1844</v>
       </c>
       <c r="I69" s="8">
-        <f>H69*G69</f>
+        <f t="shared" si="1"/>
         <v>127236</v>
       </c>
     </row>
@@ -24137,7 +24875,7 @@
         <v>286</v>
       </c>
       <c r="I70" s="8">
-        <f>H70*G70</f>
+        <f t="shared" si="1"/>
         <v>23738</v>
       </c>
     </row>
@@ -24167,7 +24905,7 @@
         <v>655</v>
       </c>
       <c r="I71" s="8">
-        <f>H71*G71</f>
+        <f t="shared" si="1"/>
         <v>52400</v>
       </c>
     </row>
@@ -24197,7 +24935,7 @@
         <v>245</v>
       </c>
       <c r="I72" s="8">
-        <f>H72*G72</f>
+        <f t="shared" si="1"/>
         <v>20825</v>
       </c>
     </row>
@@ -24227,7 +24965,7 @@
         <v>311</v>
       </c>
       <c r="I73" s="8">
-        <f>H73*G73</f>
+        <f t="shared" si="1"/>
         <v>30789</v>
       </c>
     </row>
@@ -24257,7 +24995,7 @@
         <v>983</v>
       </c>
       <c r="I74" s="8">
-        <f>H74*G74</f>
+        <f t="shared" si="1"/>
         <v>95351</v>
       </c>
     </row>
@@ -24287,7 +25025,7 @@
         <v>901</v>
       </c>
       <c r="I75" s="8">
-        <f>H75*G75</f>
+        <f t="shared" si="1"/>
         <v>47753</v>
       </c>
     </row>
@@ -24317,7 +25055,7 @@
         <v>896</v>
       </c>
       <c r="I76" s="8">
-        <f>H76*G76</f>
+        <f t="shared" si="1"/>
         <v>89600</v>
       </c>
     </row>
@@ -24347,7 +25085,7 @@
         <v>1775</v>
       </c>
       <c r="I77" s="8">
-        <f>H77*G77</f>
+        <f t="shared" si="1"/>
         <v>136675</v>
       </c>
     </row>
@@ -24377,7 +25115,7 @@
         <v>1311</v>
       </c>
       <c r="I78" s="8">
-        <f>H78*G78</f>
+        <f t="shared" si="1"/>
         <v>115368</v>
       </c>
     </row>
@@ -24407,7 +25145,7 @@
         <v>1475</v>
       </c>
       <c r="I79" s="8">
-        <f>H79*G79</f>
+        <f t="shared" si="1"/>
         <v>116525</v>
       </c>
     </row>
@@ -24437,7 +25175,7 @@
         <v>1121</v>
       </c>
       <c r="I80" s="8">
-        <f>H80*G80</f>
+        <f t="shared" si="1"/>
         <v>85196</v>
       </c>
     </row>
@@ -24467,7 +25205,7 @@
         <v>655</v>
       </c>
       <c r="I81" s="8">
-        <f>H81*G81</f>
+        <f t="shared" si="1"/>
         <v>32750</v>
       </c>
     </row>
@@ -24497,7 +25235,7 @@
         <v>2065</v>
       </c>
       <c r="I82" s="8">
-        <f>H82*G82</f>
+        <f t="shared" si="1"/>
         <v>125965</v>
       </c>
     </row>
@@ -24527,7 +25265,7 @@
         <v>2196</v>
       </c>
       <c r="I83" s="8">
-        <f>H83*G83</f>
+        <f t="shared" si="1"/>
         <v>184464</v>
       </c>
     </row>
@@ -24557,7 +25295,7 @@
         <v>573</v>
       </c>
       <c r="I84" s="8">
-        <f>H84*G84</f>
+        <f t="shared" si="1"/>
         <v>41256</v>
       </c>
     </row>
@@ -24587,7 +25325,7 @@
         <v>386</v>
       </c>
       <c r="I85" s="8">
-        <f>H85*G85</f>
+        <f t="shared" si="1"/>
         <v>28950</v>
       </c>
     </row>
@@ -24617,7 +25355,7 @@
         <v>4918</v>
       </c>
       <c r="I86" s="8">
-        <f>H86*G86</f>
+        <f t="shared" si="1"/>
         <v>457374</v>
       </c>
     </row>
@@ -24647,7 +25385,7 @@
         <v>491</v>
       </c>
       <c r="I87" s="8">
-        <f>H87*G87</f>
+        <f t="shared" si="1"/>
         <v>48118</v>
       </c>
     </row>
@@ -24677,7 +25415,7 @@
         <v>1844</v>
       </c>
       <c r="I88" s="8">
-        <f>H88*G88</f>
+        <f t="shared" si="1"/>
         <v>182556</v>
       </c>
     </row>
@@ -24707,7 +25445,7 @@
         <v>655</v>
       </c>
       <c r="I89" s="8">
-        <f>H89*G89</f>
+        <f t="shared" si="1"/>
         <v>37335</v>
       </c>
     </row>
@@ -24737,7 +25475,7 @@
         <v>1639</v>
       </c>
       <c r="I90" s="8">
-        <f>H90*G90</f>
+        <f t="shared" si="1"/>
         <v>132759</v>
       </c>
     </row>
@@ -24767,7 +25505,7 @@
         <v>655</v>
       </c>
       <c r="I91" s="8">
-        <f>H91*G91</f>
+        <f t="shared" si="1"/>
         <v>40610</v>
       </c>
     </row>
@@ -24797,7 +25535,7 @@
         <v>1704</v>
       </c>
       <c r="I92" s="8">
-        <f>H92*G92</f>
+        <f t="shared" si="1"/>
         <v>127800</v>
       </c>
     </row>
@@ -24827,7 +25565,7 @@
         <v>860</v>
       </c>
       <c r="I93" s="8">
-        <f>H93*G93</f>
+        <f t="shared" si="1"/>
         <v>43860</v>
       </c>
     </row>
@@ -24857,7 +25595,7 @@
         <v>409</v>
       </c>
       <c r="I94" s="8">
-        <f>H94*G94</f>
+        <f t="shared" si="1"/>
         <v>36401</v>
       </c>
     </row>
@@ -24887,7 +25625,7 @@
         <v>1844</v>
       </c>
       <c r="I95" s="8">
-        <f>H95*G95</f>
+        <f t="shared" si="1"/>
         <v>106952</v>
       </c>
     </row>
@@ -24917,7 +25655,7 @@
         <v>327</v>
       </c>
       <c r="I96" s="8">
-        <f>H96*G96</f>
+        <f t="shared" si="1"/>
         <v>20274</v>
       </c>
     </row>
@@ -24947,7 +25685,7 @@
         <v>368</v>
       </c>
       <c r="I97" s="8">
-        <f>H97*G97</f>
+        <f t="shared" si="1"/>
         <v>30176</v>
       </c>
     </row>
@@ -24977,7 +25715,7 @@
         <v>1844</v>
       </c>
       <c r="I98" s="8">
-        <f>H98*G98</f>
+        <f t="shared" si="1"/>
         <v>119860</v>
       </c>
     </row>
@@ -25007,7 +25745,7 @@
         <v>614</v>
       </c>
       <c r="I99" s="8">
-        <f>H99*G99</f>
+        <f t="shared" si="1"/>
         <v>39910</v>
       </c>
     </row>
@@ -25037,7 +25775,7 @@
         <v>286</v>
       </c>
       <c r="I100" s="8">
-        <f>H100*G100</f>
+        <f t="shared" si="1"/>
         <v>27742</v>
       </c>
     </row>
@@ -25067,7 +25805,7 @@
         <v>737</v>
       </c>
       <c r="I101" s="8">
-        <f>H101*G101</f>
+        <f t="shared" si="1"/>
         <v>62645</v>
       </c>
     </row>
@@ -25097,7 +25835,7 @@
         <v>295</v>
       </c>
       <c r="I102" s="8">
-        <f>H102*G102</f>
+        <f t="shared" si="1"/>
         <v>22420</v>
       </c>
     </row>
@@ -25127,7 +25865,7 @@
         <v>411</v>
       </c>
       <c r="I103" s="8">
-        <f>H103*G103</f>
+        <f t="shared" si="1"/>
         <v>28770</v>
       </c>
     </row>
@@ -25157,7 +25895,7 @@
         <v>1803</v>
       </c>
       <c r="I104" s="8">
-        <f>H104*G104</f>
+        <f t="shared" si="1"/>
         <v>104574</v>
       </c>
     </row>
@@ -25187,7 +25925,7 @@
         <v>1647</v>
       </c>
       <c r="I105" s="8">
-        <f>H105*G105</f>
+        <f t="shared" si="1"/>
         <v>121878</v>
       </c>
     </row>
@@ -25217,7 +25955,7 @@
         <v>901</v>
       </c>
       <c r="I106" s="8">
-        <f>H106*G106</f>
+        <f t="shared" si="1"/>
         <v>76585</v>
       </c>
     </row>
@@ -25247,7 +25985,7 @@
         <v>1172</v>
       </c>
       <c r="I107" s="8">
-        <f>H107*G107</f>
+        <f t="shared" si="1"/>
         <v>89072</v>
       </c>
     </row>
@@ -25277,7 +26015,7 @@
         <v>322</v>
       </c>
       <c r="I108" s="8">
-        <f>H108*G108</f>
+        <f t="shared" si="1"/>
         <v>22540</v>
       </c>
     </row>
@@ -25307,7 +26045,7 @@
         <v>737</v>
       </c>
       <c r="I109" s="8">
-        <f>H109*G109</f>
+        <f t="shared" si="1"/>
         <v>48642</v>
       </c>
     </row>
@@ -25337,7 +26075,7 @@
         <v>622</v>
       </c>
       <c r="I110" s="8">
-        <f>H110*G110</f>
+        <f t="shared" si="1"/>
         <v>41052</v>
       </c>
     </row>
@@ -25367,7 +26105,7 @@
         <v>491</v>
       </c>
       <c r="I111" s="8">
-        <f>H111*G111</f>
+        <f t="shared" si="1"/>
         <v>32897</v>
       </c>
     </row>
@@ -25397,7 +26135,7 @@
         <v>709</v>
       </c>
       <c r="I112" s="8">
-        <f>H112*G112</f>
+        <f t="shared" si="1"/>
         <v>58138</v>
       </c>
     </row>
@@ -25427,7 +26165,7 @@
         <v>622</v>
       </c>
       <c r="I113" s="8">
-        <f>H113*G113</f>
+        <f t="shared" si="1"/>
         <v>53492</v>
       </c>
     </row>
@@ -25457,7 +26195,7 @@
         <v>512</v>
       </c>
       <c r="I114" s="8">
-        <f>H114*G114</f>
+        <f t="shared" si="1"/>
         <v>37376</v>
       </c>
     </row>
@@ -25487,7 +26225,7 @@
         <v>245</v>
       </c>
       <c r="I115" s="8">
-        <f>H115*G115</f>
+        <f t="shared" si="1"/>
         <v>24010</v>
       </c>
     </row>
@@ -25517,7 +26255,7 @@
         <v>549</v>
       </c>
       <c r="I116" s="8">
-        <f>H116*G116</f>
+        <f t="shared" si="1"/>
         <v>28548</v>
       </c>
     </row>
@@ -25547,7 +26285,7 @@
         <v>901</v>
       </c>
       <c r="I117" s="8">
-        <f>H117*G117</f>
+        <f t="shared" si="1"/>
         <v>54060</v>
       </c>
     </row>
@@ -25577,7 +26315,7 @@
         <v>651</v>
       </c>
       <c r="I118" s="8">
-        <f>H118*G118</f>
+        <f t="shared" si="1"/>
         <v>48174</v>
       </c>
     </row>
@@ -25607,7 +26345,7 @@
         <v>655</v>
       </c>
       <c r="I119" s="8">
-        <f>H119*G119</f>
+        <f t="shared" si="1"/>
         <v>62880</v>
       </c>
     </row>
@@ -25637,7 +26375,7 @@
         <v>7377</v>
       </c>
       <c r="I120" s="8">
-        <f>H120*G120</f>
+        <f t="shared" si="1"/>
         <v>413112</v>
       </c>
     </row>
@@ -25667,7 +26405,7 @@
         <v>573</v>
       </c>
       <c r="I121" s="8">
-        <f>H121*G121</f>
+        <f t="shared" si="1"/>
         <v>30942</v>
       </c>
     </row>
@@ -25697,7 +26435,7 @@
         <v>368</v>
       </c>
       <c r="I122" s="8">
-        <f>H122*G122</f>
+        <f t="shared" si="1"/>
         <v>26128</v>
       </c>
     </row>
@@ -25727,7 +26465,7 @@
         <v>491</v>
       </c>
       <c r="I123" s="8">
-        <f>H123*G123</f>
+        <f t="shared" si="1"/>
         <v>31915</v>
       </c>
     </row>
@@ -25757,7 +26495,7 @@
         <v>409</v>
       </c>
       <c r="I124" s="8">
-        <f>H124*G124</f>
+        <f t="shared" si="1"/>
         <v>31902</v>
       </c>
     </row>
@@ -25787,7 +26525,7 @@
         <v>352</v>
       </c>
       <c r="I125" s="8">
-        <f>H125*G125</f>
+        <f t="shared" si="1"/>
         <v>20064</v>
       </c>
     </row>
@@ -25817,7 +26555,7 @@
         <v>386</v>
       </c>
       <c r="I126" s="8">
-        <f>H126*G126</f>
+        <f t="shared" si="1"/>
         <v>26248</v>
       </c>
     </row>
@@ -25847,7 +26585,7 @@
         <v>591</v>
       </c>
       <c r="I127" s="8">
-        <f>H127*G127</f>
+        <f t="shared" si="1"/>
         <v>34278</v>
       </c>
     </row>
@@ -25877,7 +26615,7 @@
         <v>622</v>
       </c>
       <c r="I128" s="8">
-        <f>H128*G128</f>
+        <f t="shared" si="1"/>
         <v>55358</v>
       </c>
     </row>
@@ -25907,7 +26645,7 @@
         <v>1844</v>
       </c>
       <c r="I129" s="8">
-        <f>H129*G129</f>
+        <f t="shared" si="1"/>
         <v>114328</v>
       </c>
     </row>
@@ -25937,7 +26675,7 @@
         <v>180</v>
       </c>
       <c r="I130" s="8">
-        <f>H130*G130</f>
+        <f t="shared" ref="I130:I193" si="2">H130*G130</f>
         <v>15660</v>
       </c>
     </row>
@@ -25967,7 +26705,7 @@
         <v>413</v>
       </c>
       <c r="I131" s="8">
-        <f>H131*G131</f>
+        <f t="shared" si="2"/>
         <v>30975</v>
       </c>
     </row>
@@ -25997,7 +26735,7 @@
         <v>622</v>
       </c>
       <c r="I132" s="8">
-        <f>H132*G132</f>
+        <f t="shared" si="2"/>
         <v>36698</v>
       </c>
     </row>
@@ -26027,7 +26765,7 @@
         <v>1549</v>
       </c>
       <c r="I133" s="8">
-        <f>H133*G133</f>
+        <f t="shared" si="2"/>
         <v>83646</v>
       </c>
     </row>
@@ -26057,7 +26795,7 @@
         <v>2704</v>
       </c>
       <c r="I134" s="8">
-        <f>H134*G134</f>
+        <f t="shared" si="2"/>
         <v>181168</v>
       </c>
     </row>
@@ -26087,7 +26825,7 @@
         <v>614</v>
       </c>
       <c r="I135" s="8">
-        <f>H135*G135</f>
+        <f t="shared" si="2"/>
         <v>37454</v>
       </c>
     </row>
@@ -26117,7 +26855,7 @@
         <v>1885</v>
       </c>
       <c r="I136" s="8">
-        <f>H136*G136</f>
+        <f t="shared" si="2"/>
         <v>137605</v>
       </c>
     </row>
@@ -26147,7 +26885,7 @@
         <v>1758</v>
       </c>
       <c r="I137" s="8">
-        <f>H137*G137</f>
+        <f t="shared" si="2"/>
         <v>167010</v>
       </c>
     </row>
@@ -26177,7 +26915,7 @@
         <v>272</v>
       </c>
       <c r="I138" s="8">
-        <f>H138*G138</f>
+        <f t="shared" si="2"/>
         <v>14144</v>
       </c>
     </row>
@@ -26207,7 +26945,7 @@
         <v>413</v>
       </c>
       <c r="I139" s="8">
-        <f>H139*G139</f>
+        <f t="shared" si="2"/>
         <v>39235</v>
       </c>
     </row>
@@ -26237,7 +26975,7 @@
         <v>450</v>
       </c>
       <c r="I140" s="8">
-        <f>H140*G140</f>
+        <f t="shared" si="2"/>
         <v>41850</v>
       </c>
     </row>
@@ -26267,7 +27005,7 @@
         <v>341</v>
       </c>
       <c r="I141" s="8">
-        <f>H141*G141</f>
+        <f t="shared" si="2"/>
         <v>26939</v>
       </c>
     </row>
@@ -26297,7 +27035,7 @@
         <v>286</v>
       </c>
       <c r="I142" s="8">
-        <f>H142*G142</f>
+        <f t="shared" si="2"/>
         <v>23452</v>
       </c>
     </row>
@@ -26327,7 +27065,7 @@
         <v>450</v>
       </c>
       <c r="I143" s="8">
-        <f>H143*G143</f>
+        <f t="shared" si="2"/>
         <v>35550</v>
       </c>
     </row>
@@ -26357,7 +27095,7 @@
         <v>1180</v>
       </c>
       <c r="I144" s="8">
-        <f>H144*G144</f>
+        <f t="shared" si="2"/>
         <v>102660</v>
       </c>
     </row>
@@ -26387,7 +27125,7 @@
         <v>1475</v>
       </c>
       <c r="I145" s="8">
-        <f>H145*G145</f>
+        <f t="shared" si="2"/>
         <v>88500</v>
       </c>
     </row>
@@ -26417,7 +27155,7 @@
         <v>426</v>
       </c>
       <c r="I146" s="8">
-        <f>H146*G146</f>
+        <f t="shared" si="2"/>
         <v>34932</v>
       </c>
     </row>
@@ -26447,7 +27185,7 @@
         <v>614</v>
       </c>
       <c r="I147" s="8">
-        <f>H147*G147</f>
+        <f t="shared" si="2"/>
         <v>35612</v>
       </c>
     </row>
@@ -26477,7 +27215,7 @@
         <v>9016</v>
       </c>
       <c r="I148" s="8">
-        <f>H148*G148</f>
+        <f t="shared" si="2"/>
         <v>892584</v>
       </c>
     </row>
@@ -26507,7 +27245,7 @@
         <v>491</v>
       </c>
       <c r="I149" s="8">
-        <f>H149*G149</f>
+        <f t="shared" si="2"/>
         <v>44190</v>
       </c>
     </row>
@@ -26537,7 +27275,7 @@
         <v>622</v>
       </c>
       <c r="I150" s="8">
-        <f>H150*G150</f>
+        <f t="shared" si="2"/>
         <v>53492</v>
       </c>
     </row>
@@ -26567,7 +27305,7 @@
         <v>327</v>
       </c>
       <c r="I151" s="8">
-        <f>H151*G151</f>
+        <f t="shared" si="2"/>
         <v>29430</v>
       </c>
     </row>
@@ -26597,7 +27335,7 @@
         <v>532</v>
       </c>
       <c r="I152" s="8">
-        <f>H152*G152</f>
+        <f t="shared" si="2"/>
         <v>52668</v>
       </c>
     </row>
@@ -26627,7 +27365,7 @@
         <v>327</v>
       </c>
       <c r="I153" s="8">
-        <f>H153*G153</f>
+        <f t="shared" si="2"/>
         <v>20601</v>
       </c>
     </row>
@@ -26657,7 +27395,7 @@
         <v>976</v>
       </c>
       <c r="I154" s="8">
-        <f>H154*G154</f>
+        <f t="shared" si="2"/>
         <v>78080</v>
       </c>
     </row>
@@ -26687,7 +27425,7 @@
         <v>1696</v>
       </c>
       <c r="I155" s="8">
-        <f>H155*G155</f>
+        <f t="shared" si="2"/>
         <v>117024</v>
       </c>
     </row>
@@ -26717,7 +27455,7 @@
         <v>1844</v>
       </c>
       <c r="I156" s="8">
-        <f>H156*G156</f>
+        <f t="shared" si="2"/>
         <v>158584</v>
       </c>
     </row>
@@ -26747,7 +27485,7 @@
         <v>1967</v>
       </c>
       <c r="I157" s="8">
-        <f>H157*G157</f>
+        <f t="shared" si="2"/>
         <v>121954</v>
       </c>
     </row>
@@ -26777,7 +27515,7 @@
         <v>1844</v>
       </c>
       <c r="I158" s="8">
-        <f>H158*G158</f>
+        <f t="shared" si="2"/>
         <v>171492</v>
       </c>
     </row>
@@ -26807,7 +27545,7 @@
         <v>1844</v>
       </c>
       <c r="I159" s="8">
-        <f>H159*G159</f>
+        <f t="shared" si="2"/>
         <v>130924</v>
       </c>
     </row>
@@ -26837,7 +27575,7 @@
         <v>819</v>
       </c>
       <c r="I160" s="8">
-        <f>H160*G160</f>
+        <f t="shared" si="2"/>
         <v>53235</v>
       </c>
     </row>
@@ -26867,7 +27605,7 @@
         <v>221</v>
       </c>
       <c r="I161" s="8">
-        <f>H161*G161</f>
+        <f t="shared" si="2"/>
         <v>15912</v>
       </c>
     </row>
@@ -26897,7 +27635,7 @@
         <v>386</v>
       </c>
       <c r="I162" s="8">
-        <f>H162*G162</f>
+        <f t="shared" si="2"/>
         <v>36670</v>
       </c>
     </row>
@@ -26927,7 +27665,7 @@
         <v>586</v>
       </c>
       <c r="I163" s="8">
-        <f>H163*G163</f>
+        <f t="shared" si="2"/>
         <v>39262</v>
       </c>
     </row>
@@ -26957,7 +27695,7 @@
         <v>436</v>
       </c>
       <c r="I164" s="8">
-        <f>H164*G164</f>
+        <f t="shared" si="2"/>
         <v>39676</v>
       </c>
     </row>
@@ -26987,7 +27725,7 @@
         <v>341</v>
       </c>
       <c r="I165" s="8">
-        <f>H165*G165</f>
+        <f t="shared" si="2"/>
         <v>30349</v>
       </c>
     </row>
@@ -27017,7 +27755,7 @@
         <v>413</v>
       </c>
       <c r="I166" s="8">
-        <f>H166*G166</f>
+        <f t="shared" si="2"/>
         <v>32627</v>
       </c>
     </row>
@@ -27047,7 +27785,7 @@
         <v>655</v>
       </c>
       <c r="I167" s="8">
-        <f>H167*G167</f>
+        <f t="shared" si="2"/>
         <v>39300</v>
       </c>
     </row>
@@ -27077,7 +27815,7 @@
         <v>1844</v>
       </c>
       <c r="I168" s="8">
-        <f>H168*G168</f>
+        <f t="shared" si="2"/>
         <v>138300</v>
       </c>
     </row>
@@ -27107,7 +27845,7 @@
         <v>655</v>
       </c>
       <c r="I169" s="8">
-        <f>H169*G169</f>
+        <f t="shared" si="2"/>
         <v>41265</v>
       </c>
     </row>
@@ -27137,7 +27875,7 @@
         <v>386</v>
       </c>
       <c r="I170" s="8">
-        <f>H170*G170</f>
+        <f t="shared" si="2"/>
         <v>37828</v>
       </c>
     </row>
@@ -27167,7 +27905,7 @@
         <v>1147</v>
       </c>
       <c r="I171" s="8">
-        <f>H171*G171</f>
+        <f t="shared" si="2"/>
         <v>88319</v>
       </c>
     </row>
@@ -27197,7 +27935,7 @@
         <v>1844</v>
       </c>
       <c r="I172" s="8">
-        <f>H172*G172</f>
+        <f t="shared" si="2"/>
         <v>132768</v>
       </c>
     </row>
@@ -27227,7 +27965,7 @@
         <v>622</v>
       </c>
       <c r="I173" s="8">
-        <f>H173*G173</f>
+        <f t="shared" si="2"/>
         <v>36076</v>
       </c>
     </row>
@@ -27257,7 +27995,7 @@
         <v>1311</v>
       </c>
       <c r="I174" s="8">
-        <f>H174*G174</f>
+        <f t="shared" si="2"/>
         <v>112746</v>
       </c>
     </row>
@@ -27287,7 +28025,7 @@
         <v>614</v>
       </c>
       <c r="I175" s="8">
-        <f>H175*G175</f>
+        <f t="shared" si="2"/>
         <v>35612</v>
       </c>
     </row>
@@ -27317,7 +28055,7 @@
         <v>1803</v>
       </c>
       <c r="I176" s="8">
-        <f>H176*G176</f>
+        <f t="shared" si="2"/>
         <v>133422</v>
       </c>
     </row>
@@ -27347,7 +28085,7 @@
         <v>1183</v>
       </c>
       <c r="I177" s="8">
-        <f>H177*G177</f>
+        <f t="shared" si="2"/>
         <v>92274</v>
       </c>
     </row>
@@ -27377,7 +28115,7 @@
         <v>1758</v>
       </c>
       <c r="I178" s="8">
-        <f>H178*G178</f>
+        <f t="shared" si="2"/>
         <v>103722</v>
       </c>
     </row>
@@ -27407,7 +28145,7 @@
         <v>655</v>
       </c>
       <c r="I179" s="8">
-        <f>H179*G179</f>
+        <f t="shared" si="2"/>
         <v>39300</v>
       </c>
     </row>
@@ -27437,7 +28175,7 @@
         <v>6557</v>
       </c>
       <c r="I180" s="8">
-        <f>H180*G180</f>
+        <f t="shared" si="2"/>
         <v>380306</v>
       </c>
     </row>
@@ -27467,7 +28205,7 @@
         <v>13934</v>
       </c>
       <c r="I181" s="8">
-        <f>H181*G181</f>
+        <f t="shared" si="2"/>
         <v>1198324</v>
       </c>
     </row>
@@ -27497,7 +28235,7 @@
         <v>1647</v>
       </c>
       <c r="I182" s="8">
-        <f>H182*G182</f>
+        <f t="shared" si="2"/>
         <v>93879</v>
       </c>
     </row>
@@ -27527,7 +28265,7 @@
         <v>327</v>
       </c>
       <c r="I183" s="8">
-        <f>H183*G183</f>
+        <f t="shared" si="2"/>
         <v>16677</v>
       </c>
     </row>
@@ -27557,7 +28295,7 @@
         <v>651</v>
       </c>
       <c r="I184" s="8">
-        <f>H184*G184</f>
+        <f t="shared" si="2"/>
         <v>50127</v>
       </c>
     </row>
@@ -27587,7 +28325,7 @@
         <v>983</v>
       </c>
       <c r="I185" s="8">
-        <f>H185*G185</f>
+        <f t="shared" si="2"/>
         <v>84538</v>
       </c>
     </row>
@@ -27617,7 +28355,7 @@
         <v>1639</v>
       </c>
       <c r="I186" s="8">
-        <f>H186*G186</f>
+        <f t="shared" si="2"/>
         <v>111452</v>
       </c>
     </row>
@@ -27647,7 +28385,7 @@
         <v>1844</v>
       </c>
       <c r="I187" s="8">
-        <f>H187*G187</f>
+        <f t="shared" si="2"/>
         <v>173336</v>
       </c>
     </row>
@@ -27677,7 +28415,7 @@
         <v>409</v>
       </c>
       <c r="I188" s="8">
-        <f>H188*G188</f>
+        <f t="shared" si="2"/>
         <v>29039</v>
       </c>
     </row>
@@ -27707,7 +28445,7 @@
         <v>295</v>
       </c>
       <c r="I189" s="8">
-        <f>H189*G189</f>
+        <f t="shared" si="2"/>
         <v>20355</v>
       </c>
     </row>
@@ -27737,7 +28475,7 @@
         <v>587</v>
       </c>
       <c r="I190" s="8">
-        <f>H190*G190</f>
+        <f t="shared" si="2"/>
         <v>46373</v>
       </c>
     </row>
@@ -27767,7 +28505,7 @@
         <v>919</v>
       </c>
       <c r="I191" s="8">
-        <f>H191*G191</f>
+        <f t="shared" si="2"/>
         <v>83629</v>
       </c>
     </row>
@@ -27797,7 +28535,7 @@
         <v>491</v>
       </c>
       <c r="I192" s="8">
-        <f>H192*G192</f>
+        <f t="shared" si="2"/>
         <v>48609</v>
       </c>
     </row>
@@ -27827,7 +28565,7 @@
         <v>274</v>
       </c>
       <c r="I193" s="8">
-        <f>H193*G193</f>
+        <f t="shared" si="2"/>
         <v>26852</v>
       </c>
     </row>
@@ -27857,7 +28595,7 @@
         <v>524</v>
       </c>
       <c r="I194" s="8">
-        <f>H194*G194</f>
+        <f t="shared" ref="I194:I257" si="3">H194*G194</f>
         <v>43492</v>
       </c>
     </row>
@@ -27887,7 +28625,7 @@
         <v>614</v>
       </c>
       <c r="I195" s="8">
-        <f>H195*G195</f>
+        <f t="shared" si="3"/>
         <v>34998</v>
       </c>
     </row>
@@ -27917,7 +28655,7 @@
         <v>341</v>
       </c>
       <c r="I196" s="8">
-        <f>H196*G196</f>
+        <f t="shared" si="3"/>
         <v>33759</v>
       </c>
     </row>
@@ -27947,7 +28685,7 @@
         <v>327</v>
       </c>
       <c r="I197" s="8">
-        <f>H197*G197</f>
+        <f t="shared" si="3"/>
         <v>27468</v>
       </c>
     </row>
@@ -27977,7 +28715,7 @@
         <v>368</v>
       </c>
       <c r="I198" s="8">
-        <f>H198*G198</f>
+        <f t="shared" si="3"/>
         <v>29440</v>
       </c>
     </row>
@@ -28007,7 +28745,7 @@
         <v>1465</v>
       </c>
       <c r="I199" s="8">
-        <f>H199*G199</f>
+        <f t="shared" si="3"/>
         <v>80575</v>
       </c>
     </row>
@@ -28037,7 +28775,7 @@
         <v>651</v>
       </c>
       <c r="I200" s="8">
-        <f>H200*G200</f>
+        <f t="shared" si="3"/>
         <v>46221</v>
       </c>
     </row>
@@ -28067,7 +28805,7 @@
         <v>1803</v>
       </c>
       <c r="I201" s="8">
-        <f>H201*G201</f>
+        <f t="shared" si="3"/>
         <v>124407</v>
       </c>
     </row>
@@ -28097,7 +28835,7 @@
         <v>2213</v>
       </c>
       <c r="I202" s="8">
-        <f>H202*G202</f>
+        <f t="shared" si="3"/>
         <v>148271</v>
       </c>
     </row>
@@ -28127,7 +28865,7 @@
         <v>573</v>
       </c>
       <c r="I203" s="8">
-        <f>H203*G203</f>
+        <f t="shared" si="3"/>
         <v>46986</v>
       </c>
     </row>
@@ -28157,7 +28895,7 @@
         <v>1696</v>
       </c>
       <c r="I204" s="8">
-        <f>H204*G204</f>
+        <f t="shared" si="3"/>
         <v>115328</v>
       </c>
     </row>
@@ -28187,7 +28925,7 @@
         <v>6557</v>
       </c>
       <c r="I205" s="8">
-        <f>H205*G205</f>
+        <f t="shared" si="3"/>
         <v>557345</v>
       </c>
     </row>
@@ -28217,7 +28955,7 @@
         <v>2459</v>
       </c>
       <c r="I206" s="8">
-        <f>H206*G206</f>
+        <f t="shared" si="3"/>
         <v>199179</v>
       </c>
     </row>
@@ -28247,7 +28985,7 @@
         <v>6557</v>
       </c>
       <c r="I207" s="8">
-        <f>H207*G207</f>
+        <f t="shared" si="3"/>
         <v>596687</v>
       </c>
     </row>
@@ -28277,7 +29015,7 @@
         <v>2065</v>
       </c>
       <c r="I208" s="8">
-        <f>H208*G208</f>
+        <f t="shared" si="3"/>
         <v>117705</v>
       </c>
     </row>
@@ -28307,7 +29045,7 @@
         <v>384</v>
       </c>
       <c r="I209" s="8">
-        <f>H209*G209</f>
+        <f t="shared" si="3"/>
         <v>34560</v>
       </c>
     </row>
@@ -28337,7 +29075,7 @@
         <v>368</v>
       </c>
       <c r="I210" s="8">
-        <f>H210*G210</f>
+        <f t="shared" si="3"/>
         <v>22080</v>
       </c>
     </row>
@@ -28367,7 +29105,7 @@
         <v>549</v>
       </c>
       <c r="I211" s="8">
-        <f>H211*G211</f>
+        <f t="shared" si="3"/>
         <v>53802</v>
       </c>
     </row>
@@ -28397,7 +29135,7 @@
         <v>591</v>
       </c>
       <c r="I212" s="8">
-        <f>H212*G212</f>
+        <f t="shared" si="3"/>
         <v>50826</v>
       </c>
     </row>
@@ -28427,7 +29165,7 @@
         <v>1844</v>
       </c>
       <c r="I213" s="8">
-        <f>H213*G213</f>
+        <f t="shared" si="3"/>
         <v>106952</v>
       </c>
     </row>
@@ -28457,7 +29195,7 @@
         <v>409</v>
       </c>
       <c r="I214" s="8">
-        <f>H214*G214</f>
+        <f t="shared" si="3"/>
         <v>20450</v>
       </c>
     </row>
@@ -28487,7 +29225,7 @@
         <v>555</v>
       </c>
       <c r="I215" s="8">
-        <f>H215*G215</f>
+        <f t="shared" si="3"/>
         <v>54945</v>
       </c>
     </row>
@@ -28517,7 +29255,7 @@
         <v>1844</v>
       </c>
       <c r="I216" s="8">
-        <f>H216*G216</f>
+        <f t="shared" si="3"/>
         <v>160428</v>
       </c>
     </row>
@@ -28547,7 +29285,7 @@
         <v>8240</v>
       </c>
       <c r="I217" s="8">
-        <f>H217*G217</f>
+        <f t="shared" si="3"/>
         <v>461440</v>
       </c>
     </row>
@@ -28577,7 +29315,7 @@
         <v>5327</v>
       </c>
       <c r="I218" s="8">
-        <f>H218*G218</f>
+        <f t="shared" si="3"/>
         <v>362236</v>
       </c>
     </row>
@@ -28607,7 +29345,7 @@
         <v>1549</v>
       </c>
       <c r="I219" s="8">
-        <f>H219*G219</f>
+        <f t="shared" si="3"/>
         <v>151802</v>
       </c>
     </row>
@@ -28637,7 +29375,7 @@
         <v>295</v>
       </c>
       <c r="I220" s="8">
-        <f>H220*G220</f>
+        <f t="shared" si="3"/>
         <v>19470</v>
       </c>
     </row>
@@ -28667,7 +29405,7 @@
         <v>327</v>
       </c>
       <c r="I221" s="8">
-        <f>H221*G221</f>
+        <f t="shared" si="3"/>
         <v>22563</v>
       </c>
     </row>
@@ -28697,7 +29435,7 @@
         <v>311</v>
       </c>
       <c r="I222" s="8">
-        <f>H222*G222</f>
+        <f t="shared" si="3"/>
         <v>27368</v>
       </c>
     </row>
@@ -28727,7 +29465,7 @@
         <v>450</v>
       </c>
       <c r="I223" s="8">
-        <f>H223*G223</f>
+        <f t="shared" si="3"/>
         <v>32400</v>
       </c>
     </row>
@@ -28757,7 +29495,7 @@
         <v>524</v>
       </c>
       <c r="I224" s="8">
-        <f>H224*G224</f>
+        <f t="shared" si="3"/>
         <v>44016</v>
       </c>
     </row>
@@ -28787,7 +29525,7 @@
         <v>311</v>
       </c>
       <c r="I225" s="8">
-        <f>H225*G225</f>
+        <f t="shared" si="3"/>
         <v>21459</v>
       </c>
     </row>
@@ -28817,7 +29555,7 @@
         <v>1721</v>
       </c>
       <c r="I226" s="8">
-        <f>H226*G226</f>
+        <f t="shared" si="3"/>
         <v>148006</v>
       </c>
     </row>
@@ -28847,7 +29585,7 @@
         <v>1434</v>
       </c>
       <c r="I227" s="8">
-        <f>H227*G227</f>
+        <f t="shared" si="3"/>
         <v>93210</v>
       </c>
     </row>
@@ -28877,7 +29615,7 @@
         <v>1885</v>
       </c>
       <c r="I228" s="8">
-        <f>H228*G228</f>
+        <f t="shared" si="3"/>
         <v>152685</v>
       </c>
     </row>
@@ -28907,7 +29645,7 @@
         <v>515</v>
       </c>
       <c r="I229" s="8">
-        <f>H229*G229</f>
+        <f t="shared" si="3"/>
         <v>44805</v>
       </c>
     </row>
@@ -28937,7 +29675,7 @@
         <v>591</v>
       </c>
       <c r="I230" s="8">
-        <f>H230*G230</f>
+        <f t="shared" si="3"/>
         <v>54963</v>
       </c>
     </row>
@@ -28967,7 +29705,7 @@
         <v>9016</v>
       </c>
       <c r="I231" s="8">
-        <f>H231*G231</f>
+        <f t="shared" si="3"/>
         <v>549976</v>
       </c>
     </row>
@@ -28997,7 +29735,7 @@
         <v>491</v>
       </c>
       <c r="I232" s="8">
-        <f>H232*G232</f>
+        <f t="shared" si="3"/>
         <v>47136</v>
       </c>
     </row>
@@ -29027,7 +29765,7 @@
         <v>1639</v>
       </c>
       <c r="I233" s="8">
-        <f>H233*G233</f>
+        <f t="shared" si="3"/>
         <v>113091</v>
       </c>
     </row>
@@ -29119,7 +29857,7 @@
         <v>500</v>
       </c>
       <c r="I2" s="9">
-        <f>H2*G2</f>
+        <f t="shared" ref="I2:I65" si="0">H2*G2</f>
         <v>25500</v>
       </c>
     </row>
@@ -29149,7 +29887,7 @@
         <v>1000</v>
       </c>
       <c r="I3" s="9">
-        <f>H3*G3</f>
+        <f t="shared" si="0"/>
         <v>91000</v>
       </c>
     </row>
@@ -29179,7 +29917,7 @@
         <v>1500</v>
       </c>
       <c r="I4" s="9">
-        <f>H4*G4</f>
+        <f t="shared" si="0"/>
         <v>129000</v>
       </c>
     </row>
@@ -29209,7 +29947,7 @@
         <v>1500</v>
       </c>
       <c r="I5" s="9">
-        <f>H5*G5</f>
+        <f t="shared" si="0"/>
         <v>130500</v>
       </c>
     </row>
@@ -29239,7 +29977,7 @@
         <v>2000</v>
       </c>
       <c r="I6" s="9">
-        <f>H6*G6</f>
+        <f t="shared" si="0"/>
         <v>148000</v>
       </c>
     </row>
@@ -29269,7 +30007,7 @@
         <v>1500</v>
       </c>
       <c r="I7" s="9">
-        <f>H7*G7</f>
+        <f t="shared" si="0"/>
         <v>87000</v>
       </c>
     </row>
@@ -29299,7 +30037,7 @@
         <v>700</v>
       </c>
       <c r="I8" s="9">
-        <f>H8*G8</f>
+        <f t="shared" si="0"/>
         <v>56700</v>
       </c>
     </row>
@@ -29329,7 +30067,7 @@
         <v>700</v>
       </c>
       <c r="I9" s="9">
-        <f>H9*G9</f>
+        <f t="shared" si="0"/>
         <v>67900</v>
       </c>
     </row>
@@ -29359,7 +30097,7 @@
         <v>2500</v>
       </c>
       <c r="I10" s="9">
-        <f>H10*G10</f>
+        <f t="shared" si="0"/>
         <v>150000</v>
       </c>
     </row>
@@ -29389,7 +30127,7 @@
         <v>700</v>
       </c>
       <c r="I11" s="9">
-        <f>H11*G11</f>
+        <f t="shared" si="0"/>
         <v>66500</v>
       </c>
     </row>
@@ -29419,7 +30157,7 @@
         <v>1500</v>
       </c>
       <c r="I12" s="9">
-        <f>H12*G12</f>
+        <f t="shared" si="0"/>
         <v>99000</v>
       </c>
     </row>
@@ -29449,7 +30187,7 @@
         <v>2500</v>
       </c>
       <c r="I13" s="9">
-        <f>H13*G13</f>
+        <f t="shared" si="0"/>
         <v>170000</v>
       </c>
     </row>
@@ -29479,7 +30217,7 @@
         <v>500</v>
       </c>
       <c r="I14" s="9">
-        <f>H14*G14</f>
+        <f t="shared" si="0"/>
         <v>49000</v>
       </c>
     </row>
@@ -29509,7 +30247,7 @@
         <v>1500</v>
       </c>
       <c r="I15" s="9">
-        <f>H15*G15</f>
+        <f t="shared" si="0"/>
         <v>76500</v>
       </c>
     </row>
@@ -29539,7 +30277,7 @@
         <v>12000</v>
       </c>
       <c r="I16" s="9">
-        <f>H16*G16</f>
+        <f t="shared" si="0"/>
         <v>900000</v>
       </c>
     </row>
@@ -29569,7 +30307,7 @@
         <v>12000</v>
       </c>
       <c r="I17" s="9">
-        <f>H17*G17</f>
+        <f t="shared" si="0"/>
         <v>696000</v>
       </c>
     </row>
@@ -29599,7 +30337,7 @@
         <v>800</v>
       </c>
       <c r="I18" s="9">
-        <f>H18*G18</f>
+        <f t="shared" si="0"/>
         <v>44000</v>
       </c>
     </row>
@@ -29629,7 +30367,7 @@
         <v>1000</v>
       </c>
       <c r="I19" s="9">
-        <f>H19*G19</f>
+        <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
@@ -29659,7 +30397,7 @@
         <v>2500</v>
       </c>
       <c r="I20" s="9">
-        <f>H20*G20</f>
+        <f t="shared" si="0"/>
         <v>230000</v>
       </c>
     </row>
@@ -29689,7 +30427,7 @@
         <v>1000</v>
       </c>
       <c r="I21" s="9">
-        <f>H21*G21</f>
+        <f t="shared" si="0"/>
         <v>84000</v>
       </c>
     </row>
@@ -29719,7 +30457,7 @@
         <v>1200</v>
       </c>
       <c r="I22" s="9">
-        <f>H22*G22</f>
+        <f t="shared" si="0"/>
         <v>85200</v>
       </c>
     </row>
@@ -29749,7 +30487,7 @@
         <v>1800</v>
       </c>
       <c r="I23" s="9">
-        <f>H23*G23</f>
+        <f t="shared" si="0"/>
         <v>171000</v>
       </c>
     </row>
@@ -29779,7 +30517,7 @@
         <v>1500</v>
       </c>
       <c r="I24" s="9">
-        <f>H24*G24</f>
+        <f t="shared" si="0"/>
         <v>145500</v>
       </c>
     </row>
@@ -29809,7 +30547,7 @@
         <v>700</v>
       </c>
       <c r="I25" s="9">
-        <f>H25*G25</f>
+        <f t="shared" si="0"/>
         <v>44100</v>
       </c>
     </row>
@@ -29839,7 +30577,7 @@
         <v>1500</v>
       </c>
       <c r="I26" s="9">
-        <f>H26*G26</f>
+        <f t="shared" si="0"/>
         <v>78000</v>
       </c>
     </row>
@@ -29869,7 +30607,7 @@
         <v>1500</v>
       </c>
       <c r="I27" s="9">
-        <f>H27*G27</f>
+        <f t="shared" si="0"/>
         <v>88500</v>
       </c>
     </row>
@@ -29899,7 +30637,7 @@
         <v>500</v>
       </c>
       <c r="I28" s="9">
-        <f>H28*G28</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
@@ -29929,7 +30667,7 @@
         <v>700</v>
       </c>
       <c r="I29" s="9">
-        <f>H29*G29</f>
+        <f t="shared" si="0"/>
         <v>46900</v>
       </c>
     </row>
@@ -29959,7 +30697,7 @@
         <v>2500</v>
       </c>
       <c r="I30" s="9">
-        <f>H30*G30</f>
+        <f t="shared" si="0"/>
         <v>202500</v>
       </c>
     </row>
@@ -29989,7 +30727,7 @@
         <v>2000</v>
       </c>
       <c r="I31" s="9">
-        <f>H31*G31</f>
+        <f t="shared" si="0"/>
         <v>124000</v>
       </c>
     </row>
@@ -30019,7 +30757,7 @@
         <v>1500</v>
       </c>
       <c r="I32" s="9">
-        <f>H32*G32</f>
+        <f t="shared" si="0"/>
         <v>126000</v>
       </c>
     </row>
@@ -30049,7 +30787,7 @@
         <v>1500</v>
       </c>
       <c r="I33" s="9">
-        <f>H33*G33</f>
+        <f t="shared" si="0"/>
         <v>135000</v>
       </c>
     </row>
@@ -30079,7 +30817,7 @@
         <v>1000</v>
       </c>
       <c r="I34" s="9">
-        <f>H34*G34</f>
+        <f t="shared" si="0"/>
         <v>57000</v>
       </c>
     </row>
@@ -30109,7 +30847,7 @@
         <v>1500</v>
       </c>
       <c r="I35" s="9">
-        <f>H35*G35</f>
+        <f t="shared" si="0"/>
         <v>91500</v>
       </c>
     </row>
@@ -30139,7 +30877,7 @@
         <v>10000</v>
       </c>
       <c r="I36" s="9">
-        <f>H36*G36</f>
+        <f t="shared" si="0"/>
         <v>680000</v>
       </c>
     </row>
@@ -30169,7 +30907,7 @@
         <v>900</v>
       </c>
       <c r="I37" s="9">
-        <f>H37*G37</f>
+        <f t="shared" si="0"/>
         <v>68400</v>
       </c>
     </row>
@@ -30199,7 +30937,7 @@
         <v>1500</v>
       </c>
       <c r="I38" s="9">
-        <f>H38*G38</f>
+        <f t="shared" si="0"/>
         <v>94500</v>
       </c>
     </row>
@@ -30229,7 +30967,7 @@
         <v>3000</v>
       </c>
       <c r="I39" s="9">
-        <f>H39*G39</f>
+        <f t="shared" si="0"/>
         <v>210000</v>
       </c>
     </row>
@@ -30259,7 +30997,7 @@
         <v>3000</v>
       </c>
       <c r="I40" s="9">
-        <f>H40*G40</f>
+        <f t="shared" si="0"/>
         <v>204000</v>
       </c>
     </row>
@@ -30289,7 +31027,7 @@
         <v>2000</v>
       </c>
       <c r="I41" s="9">
-        <f>H41*G41</f>
+        <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
@@ -30319,7 +31057,7 @@
         <v>700</v>
       </c>
       <c r="I42" s="9">
-        <f>H42*G42</f>
+        <f t="shared" si="0"/>
         <v>59500</v>
       </c>
     </row>
@@ -30349,7 +31087,7 @@
         <v>2000</v>
       </c>
       <c r="I43" s="9">
-        <f>H43*G43</f>
+        <f t="shared" si="0"/>
         <v>106000</v>
       </c>
     </row>
@@ -30379,7 +31117,7 @@
         <v>1500</v>
       </c>
       <c r="I44" s="9">
-        <f>H44*G44</f>
+        <f t="shared" si="0"/>
         <v>108000</v>
       </c>
     </row>
@@ -30409,7 +31147,7 @@
         <v>1500</v>
       </c>
       <c r="I45" s="9">
-        <f>H45*G45</f>
+        <f t="shared" si="0"/>
         <v>103500</v>
       </c>
     </row>
@@ -30439,7 +31177,7 @@
         <v>500</v>
       </c>
       <c r="I46" s="9">
-        <f>H46*G46</f>
+        <f t="shared" si="0"/>
         <v>49500</v>
       </c>
     </row>
@@ -30469,7 +31207,7 @@
         <v>1000</v>
       </c>
       <c r="I47" s="9">
-        <f>H47*G47</f>
+        <f t="shared" si="0"/>
         <v>73000</v>
       </c>
     </row>
@@ -30499,7 +31237,7 @@
         <v>1500</v>
       </c>
       <c r="I48" s="9">
-        <f>H48*G48</f>
+        <f t="shared" si="0"/>
         <v>90000</v>
       </c>
     </row>
@@ -30529,7 +31267,7 @@
         <v>1500</v>
       </c>
       <c r="I49" s="9">
-        <f>H49*G49</f>
+        <f t="shared" si="0"/>
         <v>130500</v>
       </c>
     </row>
@@ -30559,7 +31297,7 @@
         <v>2000</v>
       </c>
       <c r="I50" s="9">
-        <f>H50*G50</f>
+        <f t="shared" si="0"/>
         <v>180000</v>
       </c>
     </row>
@@ -30589,7 +31327,7 @@
         <v>2500</v>
       </c>
       <c r="I51" s="9">
-        <f>H51*G51</f>
+        <f t="shared" si="0"/>
         <v>190000</v>
       </c>
     </row>
@@ -30619,7 +31357,7 @@
         <v>1200</v>
       </c>
       <c r="I52" s="9">
-        <f>H52*G52</f>
+        <f t="shared" si="0"/>
         <v>82800</v>
       </c>
     </row>
@@ -30649,7 +31387,7 @@
         <v>3000</v>
       </c>
       <c r="I53" s="9">
-        <f>H53*G53</f>
+        <f t="shared" si="0"/>
         <v>291000</v>
       </c>
     </row>
@@ -30679,7 +31417,7 @@
         <v>5000</v>
       </c>
       <c r="I54" s="9">
-        <f>H54*G54</f>
+        <f t="shared" si="0"/>
         <v>285000</v>
       </c>
     </row>
@@ -30709,7 +31447,7 @@
         <v>700</v>
       </c>
       <c r="I55" s="9">
-        <f>H55*G55</f>
+        <f t="shared" si="0"/>
         <v>55300</v>
       </c>
     </row>
@@ -30739,7 +31477,7 @@
         <v>1500</v>
       </c>
       <c r="I56" s="9">
-        <f>H56*G56</f>
+        <f t="shared" si="0"/>
         <v>93000</v>
       </c>
     </row>
@@ -30769,7 +31507,7 @@
         <v>2000</v>
       </c>
       <c r="I57" s="9">
-        <f>H57*G57</f>
+        <f t="shared" si="0"/>
         <v>174000</v>
       </c>
     </row>
@@ -30799,7 +31537,7 @@
         <v>4500</v>
       </c>
       <c r="I58" s="9">
-        <f>H58*G58</f>
+        <f t="shared" si="0"/>
         <v>270000</v>
       </c>
     </row>
@@ -30829,7 +31567,7 @@
         <v>2300</v>
       </c>
       <c r="I59" s="9">
-        <f>H59*G59</f>
+        <f t="shared" si="0"/>
         <v>218500</v>
       </c>
     </row>
@@ -30859,7 +31597,7 @@
         <v>4000</v>
       </c>
       <c r="I60" s="9">
-        <f>H60*G60</f>
+        <f t="shared" si="0"/>
         <v>312000</v>
       </c>
     </row>
@@ -30889,7 +31627,7 @@
         <v>3000</v>
       </c>
       <c r="I61" s="9">
-        <f>H61*G61</f>
+        <f t="shared" si="0"/>
         <v>189000</v>
       </c>
     </row>
@@ -30919,7 +31657,7 @@
         <v>500</v>
       </c>
       <c r="I62" s="9">
-        <f>H62*G62</f>
+        <f t="shared" si="0"/>
         <v>25000</v>
       </c>
     </row>
@@ -30949,7 +31687,7 @@
         <v>500</v>
       </c>
       <c r="I63" s="9">
-        <f>H63*G63</f>
+        <f t="shared" si="0"/>
         <v>47500</v>
       </c>
     </row>
@@ -30979,7 +31717,7 @@
         <v>1500</v>
       </c>
       <c r="I64" s="9">
-        <f>H64*G64</f>
+        <f t="shared" si="0"/>
         <v>102000</v>
       </c>
     </row>
@@ -31009,7 +31747,7 @@
         <v>1100</v>
       </c>
       <c r="I65" s="9">
-        <f>H65*G65</f>
+        <f t="shared" si="0"/>
         <v>99000</v>
       </c>
     </row>
@@ -31039,7 +31777,7 @@
         <v>1000</v>
       </c>
       <c r="I66" s="9">
-        <f>H66*G66</f>
+        <f t="shared" ref="I66:I129" si="1">H66*G66</f>
         <v>70000</v>
       </c>
     </row>
@@ -31069,7 +31807,7 @@
         <v>1500</v>
       </c>
       <c r="I67" s="9">
-        <f>H67*G67</f>
+        <f t="shared" si="1"/>
         <v>142500</v>
       </c>
     </row>
@@ -31099,7 +31837,7 @@
         <v>500</v>
       </c>
       <c r="I68" s="9">
-        <f>H68*G68</f>
+        <f t="shared" si="1"/>
         <v>34500</v>
       </c>
     </row>
@@ -31129,7 +31867,7 @@
         <v>2300</v>
       </c>
       <c r="I69" s="9">
-        <f>H69*G69</f>
+        <f t="shared" si="1"/>
         <v>158700</v>
       </c>
     </row>
@@ -31159,7 +31897,7 @@
         <v>1500</v>
       </c>
       <c r="I70" s="9">
-        <f>H70*G70</f>
+        <f t="shared" si="1"/>
         <v>84000</v>
       </c>
     </row>
@@ -31189,7 +31927,7 @@
         <v>10000</v>
       </c>
       <c r="I71" s="9">
-        <f>H71*G71</f>
+        <f t="shared" si="1"/>
         <v>950000</v>
       </c>
     </row>
@@ -31219,7 +31957,7 @@
         <v>1300</v>
       </c>
       <c r="I72" s="9">
-        <f>H72*G72</f>
+        <f t="shared" si="1"/>
         <v>76700</v>
       </c>
     </row>
@@ -31249,7 +31987,7 @@
         <v>1500</v>
       </c>
       <c r="I73" s="9">
-        <f>H73*G73</f>
+        <f t="shared" si="1"/>
         <v>81000</v>
       </c>
     </row>
@@ -31279,7 +32017,7 @@
         <v>1000</v>
       </c>
       <c r="I74" s="9">
-        <f>H74*G74</f>
+        <f t="shared" si="1"/>
         <v>70000</v>
       </c>
     </row>
@@ -31309,7 +32047,7 @@
         <v>1800</v>
       </c>
       <c r="I75" s="9">
-        <f>H75*G75</f>
+        <f t="shared" si="1"/>
         <v>167400</v>
       </c>
     </row>
@@ -31339,7 +32077,7 @@
         <v>500</v>
       </c>
       <c r="I76" s="9">
-        <f>H76*G76</f>
+        <f t="shared" si="1"/>
         <v>34500</v>
       </c>
     </row>
@@ -31369,7 +32107,7 @@
         <v>6000</v>
       </c>
       <c r="I77" s="9">
-        <f>H77*G77</f>
+        <f t="shared" si="1"/>
         <v>348000</v>
       </c>
     </row>
@@ -31399,7 +32137,7 @@
         <v>500</v>
       </c>
       <c r="I78" s="9">
-        <f>H78*G78</f>
+        <f t="shared" si="1"/>
         <v>32500</v>
       </c>
     </row>
@@ -31429,7 +32167,7 @@
         <v>2500</v>
       </c>
       <c r="I79" s="9">
-        <f>H79*G79</f>
+        <f t="shared" si="1"/>
         <v>195000</v>
       </c>
     </row>
@@ -31459,7 +32197,7 @@
         <v>2800</v>
       </c>
       <c r="I80" s="9">
-        <f>H80*G80</f>
+        <f t="shared" si="1"/>
         <v>184800</v>
       </c>
     </row>
@@ -31489,7 +32227,7 @@
         <v>3800</v>
       </c>
       <c r="I81" s="9">
-        <f>H81*G81</f>
+        <f t="shared" si="1"/>
         <v>380000</v>
       </c>
     </row>
@@ -31519,7 +32257,7 @@
         <v>500</v>
       </c>
       <c r="I82" s="9">
-        <f>H82*G82</f>
+        <f t="shared" si="1"/>
         <v>28000</v>
       </c>
     </row>
@@ -31549,7 +32287,7 @@
         <v>2500</v>
       </c>
       <c r="I83" s="9">
-        <f>H83*G83</f>
+        <f t="shared" si="1"/>
         <v>197500</v>
       </c>
     </row>
@@ -31579,7 +32317,7 @@
         <v>4000</v>
       </c>
       <c r="I84" s="9">
-        <f>H84*G84</f>
+        <f t="shared" si="1"/>
         <v>316000</v>
       </c>
     </row>
@@ -31609,7 +32347,7 @@
         <v>800</v>
       </c>
       <c r="I85" s="9">
-        <f>H85*G85</f>
+        <f t="shared" si="1"/>
         <v>79200</v>
       </c>
     </row>
@@ -31639,7 +32377,7 @@
         <v>2500</v>
       </c>
       <c r="I86" s="9">
-        <f>H86*G86</f>
+        <f t="shared" si="1"/>
         <v>202500</v>
       </c>
     </row>
@@ -31669,7 +32407,7 @@
         <v>2500</v>
       </c>
       <c r="I87" s="9">
-        <f>H87*G87</f>
+        <f t="shared" si="1"/>
         <v>192500</v>
       </c>
     </row>
@@ -31699,7 +32437,7 @@
         <v>1500</v>
       </c>
       <c r="I88" s="9">
-        <f>H88*G88</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
@@ -31729,7 +32467,7 @@
         <v>1500</v>
       </c>
       <c r="I89" s="9">
-        <f>H89*G89</f>
+        <f t="shared" si="1"/>
         <v>115500</v>
       </c>
     </row>
@@ -31759,7 +32497,7 @@
         <v>700</v>
       </c>
       <c r="I90" s="9">
-        <f>H90*G90</f>
+        <f t="shared" si="1"/>
         <v>37100</v>
       </c>
     </row>
@@ -31789,7 +32527,7 @@
         <v>2000</v>
       </c>
       <c r="I91" s="9">
-        <f>H91*G91</f>
+        <f t="shared" si="1"/>
         <v>182000</v>
       </c>
     </row>
@@ -31819,7 +32557,7 @@
         <v>1000</v>
       </c>
       <c r="I92" s="9">
-        <f>H92*G92</f>
+        <f t="shared" si="1"/>
         <v>55000</v>
       </c>
     </row>
@@ -31849,7 +32587,7 @@
         <v>1000</v>
       </c>
       <c r="I93" s="9">
-        <f>H93*G93</f>
+        <f t="shared" si="1"/>
         <v>67000</v>
       </c>
     </row>
@@ -31879,7 +32617,7 @@
         <v>700</v>
       </c>
       <c r="I94" s="9">
-        <f>H94*G94</f>
+        <f t="shared" si="1"/>
         <v>46200</v>
       </c>
     </row>
@@ -31909,7 +32647,7 @@
         <v>1500</v>
       </c>
       <c r="I95" s="9">
-        <f>H95*G95</f>
+        <f t="shared" si="1"/>
         <v>79500</v>
       </c>
     </row>
@@ -31939,7 +32677,7 @@
         <v>1000</v>
       </c>
       <c r="I96" s="9">
-        <f>H96*G96</f>
+        <f t="shared" si="1"/>
         <v>97000</v>
       </c>
     </row>
@@ -31969,7 +32707,7 @@
         <v>12000</v>
       </c>
       <c r="I97" s="9">
-        <f>H97*G97</f>
+        <f t="shared" si="1"/>
         <v>780000</v>
       </c>
     </row>
@@ -31999,7 +32737,7 @@
         <v>1000</v>
       </c>
       <c r="I98" s="9">
-        <f>H98*G98</f>
+        <f t="shared" si="1"/>
         <v>67000</v>
       </c>
     </row>
@@ -32029,7 +32767,7 @@
         <v>500</v>
       </c>
       <c r="I99" s="9">
-        <f>H99*G99</f>
+        <f t="shared" si="1"/>
         <v>44500</v>
       </c>
     </row>
@@ -32059,7 +32797,7 @@
         <v>900</v>
       </c>
       <c r="I100" s="9">
-        <f>H100*G100</f>
+        <f t="shared" si="1"/>
         <v>72000</v>
       </c>
     </row>
@@ -32089,7 +32827,7 @@
         <v>3000</v>
       </c>
       <c r="I101" s="9">
-        <f>H101*G101</f>
+        <f t="shared" si="1"/>
         <v>204000</v>
       </c>
     </row>
@@ -32119,7 +32857,7 @@
         <v>1100</v>
       </c>
       <c r="I102" s="9">
-        <f>H102*G102</f>
+        <f t="shared" si="1"/>
         <v>66000</v>
       </c>
     </row>
@@ -32149,7 +32887,7 @@
         <v>13000</v>
       </c>
       <c r="I103" s="9">
-        <f>H103*G103</f>
+        <f t="shared" si="1"/>
         <v>650000</v>
       </c>
     </row>
@@ -32179,7 +32917,7 @@
         <v>900</v>
       </c>
       <c r="I104" s="9">
-        <f>H104*G104</f>
+        <f t="shared" si="1"/>
         <v>53100</v>
       </c>
     </row>
@@ -32209,7 +32947,7 @@
         <v>2000</v>
       </c>
       <c r="I105" s="9">
-        <f>H105*G105</f>
+        <f t="shared" si="1"/>
         <v>104000</v>
       </c>
     </row>
@@ -32239,7 +32977,7 @@
         <v>1000</v>
       </c>
       <c r="I106" s="9">
-        <f>H106*G106</f>
+        <f t="shared" si="1"/>
         <v>54000</v>
       </c>
     </row>
@@ -32269,7 +33007,7 @@
         <v>1500</v>
       </c>
       <c r="I107" s="9">
-        <f>H107*G107</f>
+        <f t="shared" si="1"/>
         <v>117000</v>
       </c>
     </row>
@@ -32299,7 +33037,7 @@
         <v>3000</v>
       </c>
       <c r="I108" s="9">
-        <f>H108*G108</f>
+        <f t="shared" si="1"/>
         <v>279000</v>
       </c>
     </row>
@@ -32329,7 +33067,7 @@
         <v>800</v>
       </c>
       <c r="I109" s="9">
-        <f>H109*G109</f>
+        <f t="shared" si="1"/>
         <v>43200</v>
       </c>
     </row>
@@ -32359,7 +33097,7 @@
         <v>5000</v>
       </c>
       <c r="I110" s="9">
-        <f>H110*G110</f>
+        <f t="shared" si="1"/>
         <v>305000</v>
       </c>
     </row>
@@ -32389,7 +33127,7 @@
         <v>1200</v>
       </c>
       <c r="I111" s="9">
-        <f>H111*G111</f>
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
@@ -32419,7 +33157,7 @@
         <v>800</v>
       </c>
       <c r="I112" s="9">
-        <f>H112*G112</f>
+        <f t="shared" si="1"/>
         <v>56000</v>
       </c>
     </row>
@@ -32449,7 +33187,7 @@
         <v>2500</v>
       </c>
       <c r="I113" s="9">
-        <f>H113*G113</f>
+        <f t="shared" si="1"/>
         <v>247500</v>
       </c>
     </row>
@@ -32479,7 +33217,7 @@
         <v>2500</v>
       </c>
       <c r="I114" s="9">
-        <f>H114*G114</f>
+        <f t="shared" si="1"/>
         <v>180000</v>
       </c>
     </row>
@@ -32509,7 +33247,7 @@
         <v>1500</v>
       </c>
       <c r="I115" s="9">
-        <f>H115*G115</f>
+        <f t="shared" si="1"/>
         <v>141000</v>
       </c>
     </row>
@@ -32539,7 +33277,7 @@
         <v>2500</v>
       </c>
       <c r="I116" s="9">
-        <f>H116*G116</f>
+        <f t="shared" si="1"/>
         <v>247500</v>
       </c>
     </row>
@@ -32569,7 +33307,7 @@
         <v>1500</v>
       </c>
       <c r="I117" s="9">
-        <f>H117*G117</f>
+        <f t="shared" si="1"/>
         <v>150000</v>
       </c>
     </row>
@@ -32599,7 +33337,7 @@
         <v>500</v>
       </c>
       <c r="I118" s="9">
-        <f>H118*G118</f>
+        <f t="shared" si="1"/>
         <v>47000</v>
       </c>
     </row>
@@ -32629,7 +33367,7 @@
         <v>1000</v>
       </c>
       <c r="I119" s="9">
-        <f>H119*G119</f>
+        <f t="shared" si="1"/>
         <v>74000</v>
       </c>
     </row>
@@ -32659,7 +33397,7 @@
         <v>2500</v>
       </c>
       <c r="I120" s="9">
-        <f>H120*G120</f>
+        <f t="shared" si="1"/>
         <v>187500</v>
       </c>
     </row>
@@ -32689,7 +33427,7 @@
         <v>1800</v>
       </c>
       <c r="I121" s="9">
-        <f>H121*G121</f>
+        <f t="shared" si="1"/>
         <v>167400</v>
       </c>
     </row>
@@ -32719,7 +33457,7 @@
         <v>1000</v>
       </c>
       <c r="I122" s="9">
-        <f>H122*G122</f>
+        <f t="shared" si="1"/>
         <v>87000</v>
       </c>
     </row>
@@ -32749,7 +33487,7 @@
         <v>9000</v>
       </c>
       <c r="I123" s="9">
-        <f>H123*G123</f>
+        <f t="shared" si="1"/>
         <v>468000</v>
       </c>
     </row>
@@ -32779,7 +33517,7 @@
         <v>2000</v>
       </c>
       <c r="I124" s="9">
-        <f>H124*G124</f>
+        <f t="shared" si="1"/>
         <v>128000</v>
       </c>
     </row>
@@ -32809,7 +33547,7 @@
         <v>600</v>
       </c>
       <c r="I125" s="9">
-        <f>H125*G125</f>
+        <f t="shared" si="1"/>
         <v>42600</v>
       </c>
     </row>
@@ -32839,7 +33577,7 @@
         <v>1500</v>
       </c>
       <c r="I126" s="9">
-        <f>H126*G126</f>
+        <f t="shared" si="1"/>
         <v>117000</v>
       </c>
     </row>
@@ -32869,7 +33607,7 @@
         <v>2000</v>
       </c>
       <c r="I127" s="9">
-        <f>H127*G127</f>
+        <f t="shared" si="1"/>
         <v>156000</v>
       </c>
     </row>
@@ -32899,7 +33637,7 @@
         <v>800</v>
       </c>
       <c r="I128" s="9">
-        <f>H128*G128</f>
+        <f t="shared" si="1"/>
         <v>58400</v>
       </c>
     </row>
@@ -32929,7 +33667,7 @@
         <v>1200</v>
       </c>
       <c r="I129" s="9">
-        <f>H129*G129</f>
+        <f t="shared" si="1"/>
         <v>87600</v>
       </c>
     </row>
@@ -32959,7 +33697,7 @@
         <v>5500</v>
       </c>
       <c r="I130" s="9">
-        <f>H130*G130</f>
+        <f t="shared" ref="I130:I193" si="2">H130*G130</f>
         <v>352000</v>
       </c>
     </row>
@@ -32989,7 +33727,7 @@
         <v>1000</v>
       </c>
       <c r="I131" s="9">
-        <f>H131*G131</f>
+        <f t="shared" si="2"/>
         <v>51000</v>
       </c>
     </row>
@@ -33019,7 +33757,7 @@
         <v>1000</v>
       </c>
       <c r="I132" s="9">
-        <f>H132*G132</f>
+        <f t="shared" si="2"/>
         <v>61000</v>
       </c>
     </row>
@@ -33049,7 +33787,7 @@
         <v>2000</v>
       </c>
       <c r="I133" s="9">
-        <f>H133*G133</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -33079,7 +33817,7 @@
         <v>800</v>
       </c>
       <c r="I134" s="9">
-        <f>H134*G134</f>
+        <f t="shared" si="2"/>
         <v>68800</v>
       </c>
     </row>
@@ -33109,7 +33847,7 @@
         <v>1200</v>
       </c>
       <c r="I135" s="9">
-        <f>H135*G135</f>
+        <f t="shared" si="2"/>
         <v>61200</v>
       </c>
     </row>
@@ -33139,7 +33877,7 @@
         <v>2800</v>
       </c>
       <c r="I136" s="9">
-        <f>H136*G136</f>
+        <f t="shared" si="2"/>
         <v>263200</v>
       </c>
     </row>
@@ -33169,7 +33907,7 @@
         <v>1000</v>
       </c>
       <c r="I137" s="9">
-        <f>H137*G137</f>
+        <f t="shared" si="2"/>
         <v>72000</v>
       </c>
     </row>
@@ -33199,7 +33937,7 @@
         <v>5500</v>
       </c>
       <c r="I138" s="9">
-        <f>H138*G138</f>
+        <f t="shared" si="2"/>
         <v>390500</v>
       </c>
     </row>
@@ -33229,7 +33967,7 @@
         <v>900</v>
       </c>
       <c r="I139" s="9">
-        <f>H139*G139</f>
+        <f t="shared" si="2"/>
         <v>83700</v>
       </c>
     </row>
@@ -33259,7 +33997,7 @@
         <v>1000</v>
       </c>
       <c r="I140" s="9">
-        <f>H140*G140</f>
+        <f t="shared" si="2"/>
         <v>79000</v>
       </c>
     </row>
@@ -33289,7 +34027,7 @@
         <v>2500</v>
       </c>
       <c r="I141" s="9">
-        <f>H141*G141</f>
+        <f t="shared" si="2"/>
         <v>242500</v>
       </c>
     </row>
@@ -33319,7 +34057,7 @@
         <v>8000</v>
       </c>
       <c r="I142" s="9">
-        <f>H142*G142</f>
+        <f t="shared" si="2"/>
         <v>576000</v>
       </c>
     </row>
@@ -33349,7 +34087,7 @@
         <v>2000</v>
       </c>
       <c r="I143" s="9">
-        <f>H143*G143</f>
+        <f t="shared" si="2"/>
         <v>146000</v>
       </c>
     </row>
@@ -33379,7 +34117,7 @@
         <v>1500</v>
       </c>
       <c r="I144" s="9">
-        <f>H144*G144</f>
+        <f t="shared" si="2"/>
         <v>133500</v>
       </c>
     </row>
@@ -33409,7 +34147,7 @@
         <v>1800</v>
       </c>
       <c r="I145" s="9">
-        <f>H145*G145</f>
+        <f t="shared" si="2"/>
         <v>147600</v>
       </c>
     </row>
@@ -33439,7 +34177,7 @@
         <v>500</v>
       </c>
       <c r="I146" s="9">
-        <f>H146*G146</f>
+        <f t="shared" si="2"/>
         <v>30500</v>
       </c>
     </row>
@@ -33469,7 +34207,7 @@
         <v>1200</v>
       </c>
       <c r="I147" s="9">
-        <f>H147*G147</f>
+        <f t="shared" si="2"/>
         <v>73200</v>
       </c>
     </row>
@@ -33499,7 +34237,7 @@
         <v>2500</v>
       </c>
       <c r="I148" s="9">
-        <f>H148*G148</f>
+        <f t="shared" si="2"/>
         <v>237500</v>
       </c>
     </row>
@@ -33529,7 +34267,7 @@
         <v>600</v>
       </c>
       <c r="I149" s="9">
-        <f>H149*G149</f>
+        <f t="shared" si="2"/>
         <v>42000</v>
       </c>
     </row>
@@ -33559,7 +34297,7 @@
         <v>2500</v>
       </c>
       <c r="I150" s="9">
-        <f>H150*G150</f>
+        <f t="shared" si="2"/>
         <v>192500</v>
       </c>
     </row>
@@ -33589,7 +34327,7 @@
         <v>6000</v>
       </c>
       <c r="I151" s="9">
-        <f>H151*G151</f>
+        <f t="shared" si="2"/>
         <v>498000</v>
       </c>
     </row>
@@ -33619,7 +34357,7 @@
         <v>700</v>
       </c>
       <c r="I152" s="9">
-        <f>H152*G152</f>
+        <f t="shared" si="2"/>
         <v>50400</v>
       </c>
     </row>
@@ -33649,7 +34387,7 @@
         <v>1000</v>
       </c>
       <c r="I153" s="9">
-        <f>H153*G153</f>
+        <f t="shared" si="2"/>
         <v>79000</v>
       </c>
     </row>
@@ -33679,7 +34417,7 @@
         <v>2500</v>
       </c>
       <c r="I154" s="9">
-        <f>H154*G154</f>
+        <f t="shared" si="2"/>
         <v>227500</v>
       </c>
     </row>
@@ -33709,7 +34447,7 @@
         <v>3000</v>
       </c>
       <c r="I155" s="9">
-        <f>H155*G155</f>
+        <f t="shared" si="2"/>
         <v>210000</v>
       </c>
     </row>
@@ -33739,7 +34477,7 @@
         <v>3000</v>
       </c>
       <c r="I156" s="9">
-        <f>H156*G156</f>
+        <f t="shared" si="2"/>
         <v>210000</v>
       </c>
     </row>
@@ -33769,7 +34507,7 @@
         <v>3000</v>
       </c>
       <c r="I157" s="9">
-        <f>H157*G157</f>
+        <f t="shared" si="2"/>
         <v>246000</v>
       </c>
     </row>
@@ -33799,7 +34537,7 @@
         <v>3000</v>
       </c>
       <c r="I158" s="9">
-        <f>H158*G158</f>
+        <f t="shared" si="2"/>
         <v>276000</v>
       </c>
     </row>
@@ -33829,7 +34567,7 @@
         <v>600</v>
       </c>
       <c r="I159" s="9">
-        <f>H159*G159</f>
+        <f t="shared" si="2"/>
         <v>51000</v>
       </c>
     </row>
@@ -33859,7 +34597,7 @@
         <v>600</v>
       </c>
       <c r="I160" s="9">
-        <f>H160*G160</f>
+        <f t="shared" si="2"/>
         <v>30600</v>
       </c>
     </row>
@@ -33889,7 +34627,7 @@
         <v>1000</v>
       </c>
       <c r="I161" s="9">
-        <f>H161*G161</f>
+        <f t="shared" si="2"/>
         <v>83000</v>
       </c>
     </row>
@@ -33919,7 +34657,7 @@
         <v>2000</v>
       </c>
       <c r="I162" s="9">
-        <f>H162*G162</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -33949,7 +34687,7 @@
         <v>1800</v>
       </c>
       <c r="I163" s="9">
-        <f>H163*G163</f>
+        <f t="shared" si="2"/>
         <v>149400</v>
       </c>
     </row>
@@ -33979,7 +34717,7 @@
         <v>1800</v>
       </c>
       <c r="I164" s="9">
-        <f>H164*G164</f>
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
     </row>
@@ -34009,7 +34747,7 @@
         <v>600</v>
       </c>
       <c r="I165" s="9">
-        <f>H165*G165</f>
+        <f t="shared" si="2"/>
         <v>35400</v>
       </c>
     </row>
@@ -34039,7 +34777,7 @@
         <v>1000</v>
       </c>
       <c r="I166" s="9">
-        <f>H166*G166</f>
+        <f t="shared" si="2"/>
         <v>57000</v>
       </c>
     </row>
@@ -34069,7 +34807,7 @@
         <v>500</v>
       </c>
       <c r="I167" s="9">
-        <f>H167*G167</f>
+        <f t="shared" si="2"/>
         <v>41000</v>
       </c>
     </row>
@@ -34099,7 +34837,7 @@
         <v>2000</v>
       </c>
       <c r="I168" s="9">
-        <f>H168*G168</f>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -34129,7 +34867,7 @@
         <v>3000</v>
       </c>
       <c r="I169" s="9">
-        <f>H169*G169</f>
+        <f t="shared" si="2"/>
         <v>258000</v>
       </c>
     </row>
@@ -34159,7 +34897,7 @@
         <v>300</v>
       </c>
       <c r="I170" s="9">
-        <f>H170*G170</f>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
     </row>
@@ -34189,7 +34927,7 @@
         <v>20000</v>
       </c>
       <c r="I171" s="9">
-        <f>H171*G171</f>
+        <f t="shared" si="2"/>
         <v>1500000</v>
       </c>
     </row>
@@ -34219,7 +34957,7 @@
         <v>12000</v>
       </c>
       <c r="I172" s="9">
-        <f>H172*G172</f>
+        <f t="shared" si="2"/>
         <v>1080000</v>
       </c>
     </row>
@@ -34249,7 +34987,7 @@
         <v>1000</v>
       </c>
       <c r="I173" s="9">
-        <f>H173*G173</f>
+        <f t="shared" si="2"/>
         <v>93000</v>
       </c>
     </row>
@@ -34279,7 +35017,7 @@
         <v>5000</v>
       </c>
       <c r="I174" s="9">
-        <f>H174*G174</f>
+        <f t="shared" si="2"/>
         <v>265000</v>
       </c>
     </row>
@@ -34309,7 +35047,7 @@
         <v>2500</v>
       </c>
       <c r="I175" s="9">
-        <f>H175*G175</f>
+        <f t="shared" si="2"/>
         <v>232500</v>
       </c>
     </row>
@@ -34339,7 +35077,7 @@
         <v>700</v>
       </c>
       <c r="I176" s="9">
-        <f>H176*G176</f>
+        <f t="shared" si="2"/>
         <v>65800</v>
       </c>
     </row>
@@ -34369,7 +35107,7 @@
         <v>800</v>
       </c>
       <c r="I177" s="9">
-        <f>H177*G177</f>
+        <f t="shared" si="2"/>
         <v>40000</v>
       </c>
     </row>
@@ -34399,7 +35137,7 @@
         <v>1500</v>
       </c>
       <c r="I178" s="9">
-        <f>H178*G178</f>
+        <f t="shared" si="2"/>
         <v>142500</v>
       </c>
     </row>
@@ -34429,7 +35167,7 @@
         <v>1000</v>
       </c>
       <c r="I179" s="9">
-        <f>H179*G179</f>
+        <f t="shared" si="2"/>
         <v>52000</v>
       </c>
     </row>
@@ -34459,7 +35197,7 @@
         <v>4000</v>
       </c>
       <c r="I180" s="9">
-        <f>H180*G180</f>
+        <f t="shared" si="2"/>
         <v>212000</v>
       </c>
     </row>
@@ -34489,7 +35227,7 @@
         <v>2800</v>
       </c>
       <c r="I181" s="9">
-        <f>H181*G181</f>
+        <f t="shared" si="2"/>
         <v>232400</v>
       </c>
     </row>
@@ -34519,7 +35257,7 @@
         <v>1200</v>
       </c>
       <c r="I182" s="9">
-        <f>H182*G182</f>
+        <f t="shared" si="2"/>
         <v>116400</v>
       </c>
     </row>
@@ -34549,7 +35287,7 @@
         <v>2500</v>
       </c>
       <c r="I183" s="9">
-        <f>H183*G183</f>
+        <f t="shared" si="2"/>
         <v>147500</v>
       </c>
     </row>
@@ -34579,7 +35317,7 @@
         <v>1000</v>
       </c>
       <c r="I184" s="9">
-        <f>H184*G184</f>
+        <f t="shared" si="2"/>
         <v>61000</v>
       </c>
     </row>
@@ -34609,7 +35347,7 @@
         <v>1500</v>
       </c>
       <c r="I185" s="9">
-        <f>H185*G185</f>
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
     </row>
@@ -34639,7 +35377,7 @@
         <v>1000</v>
       </c>
       <c r="I186" s="9">
-        <f>H186*G186</f>
+        <f t="shared" si="2"/>
         <v>97000</v>
       </c>
     </row>
@@ -34669,7 +35407,7 @@
         <v>1800</v>
       </c>
       <c r="I187" s="9">
-        <f>H187*G187</f>
+        <f t="shared" si="2"/>
         <v>171000</v>
       </c>
     </row>
@@ -34699,7 +35437,7 @@
         <v>2500</v>
       </c>
       <c r="I188" s="9">
-        <f>H188*G188</f>
+        <f t="shared" si="2"/>
         <v>160000</v>
       </c>
     </row>
@@ -34729,7 +35467,7 @@
         <v>500</v>
       </c>
       <c r="I189" s="9">
-        <f>H189*G189</f>
+        <f t="shared" si="2"/>
         <v>27000</v>
       </c>
     </row>
@@ -34759,7 +35497,7 @@
         <v>1500</v>
       </c>
       <c r="I190" s="9">
-        <f>H190*G190</f>
+        <f t="shared" si="2"/>
         <v>112500</v>
       </c>
     </row>
@@ -34789,7 +35527,7 @@
         <v>1500</v>
       </c>
       <c r="I191" s="9">
-        <f>H191*G191</f>
+        <f t="shared" si="2"/>
         <v>88500</v>
       </c>
     </row>
@@ -34819,7 +35557,7 @@
         <v>600</v>
       </c>
       <c r="I192" s="9">
-        <f>H192*G192</f>
+        <f t="shared" si="2"/>
         <v>39600</v>
       </c>
     </row>
@@ -34849,7 +35587,7 @@
         <v>1800</v>
       </c>
       <c r="I193" s="9">
-        <f>H193*G193</f>
+        <f t="shared" si="2"/>
         <v>99000</v>
       </c>
     </row>
@@ -34879,7 +35617,7 @@
         <v>4000</v>
       </c>
       <c r="I194" s="9">
-        <f>H194*G194</f>
+        <f t="shared" ref="I194:I257" si="3">H194*G194</f>
         <v>340000</v>
       </c>
     </row>
@@ -34909,7 +35647,7 @@
         <v>1000</v>
       </c>
       <c r="I195" s="9">
-        <f>H195*G195</f>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
     </row>
@@ -34939,7 +35677,7 @@
         <v>700</v>
       </c>
       <c r="I196" s="9">
-        <f>H196*G196</f>
+        <f t="shared" si="3"/>
         <v>59500</v>
       </c>
     </row>
@@ -34969,7 +35707,7 @@
         <v>800</v>
       </c>
       <c r="I197" s="9">
-        <f>H197*G197</f>
+        <f t="shared" si="3"/>
         <v>40000</v>
       </c>
     </row>
@@ -34999,7 +35737,7 @@
         <v>1000</v>
       </c>
       <c r="I198" s="9">
-        <f>H198*G198</f>
+        <f t="shared" si="3"/>
         <v>83000</v>
       </c>
     </row>
@@ -35029,7 +35767,7 @@
         <v>1500</v>
       </c>
       <c r="I199" s="9">
-        <f>H199*G199</f>
+        <f t="shared" si="3"/>
         <v>133500</v>
       </c>
     </row>
@@ -35059,7 +35797,7 @@
         <v>600</v>
       </c>
       <c r="I200" s="9">
-        <f>H200*G200</f>
+        <f t="shared" si="3"/>
         <v>43200</v>
       </c>
     </row>
@@ -35089,7 +35827,7 @@
         <v>500</v>
       </c>
       <c r="I201" s="9">
-        <f>H201*G201</f>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
     </row>
@@ -35119,7 +35857,7 @@
         <v>1500</v>
       </c>
       <c r="I202" s="9">
-        <f>H202*G202</f>
+        <f t="shared" si="3"/>
         <v>145500</v>
       </c>
     </row>
@@ -35149,7 +35887,7 @@
         <v>1000</v>
       </c>
       <c r="I203" s="9">
-        <f>H203*G203</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -35179,7 +35917,7 @@
         <v>1200</v>
       </c>
       <c r="I204" s="9">
-        <f>H204*G204</f>
+        <f t="shared" si="3"/>
         <v>114000</v>
       </c>
     </row>
@@ -35209,7 +35947,7 @@
         <v>2500</v>
       </c>
       <c r="I205" s="9">
-        <f>H205*G205</f>
+        <f t="shared" si="3"/>
         <v>240000</v>
       </c>
     </row>
@@ -35239,7 +35977,7 @@
         <v>800</v>
       </c>
       <c r="I206" s="9">
-        <f>H206*G206</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -35269,7 +36007,7 @@
         <v>500</v>
       </c>
       <c r="I207" s="9">
-        <f>H207*G207</f>
+        <f t="shared" si="3"/>
         <v>46500</v>
       </c>
     </row>
@@ -35299,7 +36037,7 @@
         <v>2500</v>
       </c>
       <c r="I208" s="9">
-        <f>H208*G208</f>
+        <f t="shared" si="3"/>
         <v>132500</v>
       </c>
     </row>
@@ -35329,7 +36067,7 @@
         <v>1500</v>
       </c>
       <c r="I209" s="9">
-        <f>H209*G209</f>
+        <f t="shared" si="3"/>
         <v>129000</v>
       </c>
     </row>
@@ -35359,7 +36097,7 @@
         <v>18000</v>
       </c>
       <c r="I210" s="9">
-        <f>H210*G210</f>
+        <f t="shared" si="3"/>
         <v>1026000</v>
       </c>
     </row>
@@ -35389,7 +36127,7 @@
         <v>800</v>
       </c>
       <c r="I211" s="9">
-        <f>H211*G211</f>
+        <f t="shared" si="3"/>
         <v>75200</v>
       </c>
     </row>
@@ -35419,7 +36157,7 @@
         <v>500</v>
       </c>
       <c r="I212" s="9">
-        <f>H212*G212</f>
+        <f t="shared" si="3"/>
         <v>49500</v>
       </c>
     </row>
@@ -35449,7 +36187,7 @@
         <v>1200</v>
       </c>
       <c r="I213" s="9">
-        <f>H213*G213</f>
+        <f t="shared" si="3"/>
         <v>115200</v>
       </c>
     </row>
@@ -35479,7 +36217,7 @@
         <v>3000</v>
       </c>
       <c r="I214" s="9">
-        <f>H214*G214</f>
+        <f t="shared" si="3"/>
         <v>291000</v>
       </c>
     </row>
@@ -35509,7 +36247,7 @@
         <v>5000</v>
       </c>
       <c r="I215" s="9">
-        <f>H215*G215</f>
+        <f t="shared" si="3"/>
         <v>285000</v>
       </c>
     </row>
@@ -35539,7 +36277,7 @@
         <v>700</v>
       </c>
       <c r="I216" s="9">
-        <f>H216*G216</f>
+        <f t="shared" si="3"/>
         <v>46200</v>
       </c>
     </row>
@@ -35569,7 +36307,7 @@
         <v>1300</v>
       </c>
       <c r="I217" s="9">
-        <f>H217*G217</f>
+        <f t="shared" si="3"/>
         <v>102700</v>
       </c>
     </row>
@@ -35599,7 +36337,7 @@
         <v>3000</v>
       </c>
       <c r="I218" s="9">
-        <f>H218*G218</f>
+        <f t="shared" si="3"/>
         <v>285000</v>
       </c>
     </row>
@@ -35629,7 +36367,7 @@
         <v>7000</v>
       </c>
       <c r="I219" s="9">
-        <f>H219*G219</f>
+        <f t="shared" si="3"/>
         <v>357000</v>
       </c>
     </row>
@@ -35659,7 +36397,7 @@
         <v>1500</v>
       </c>
       <c r="I220" s="9">
-        <f>H220*G220</f>
+        <f t="shared" si="3"/>
         <v>123000</v>
       </c>
     </row>
@@ -35689,7 +36427,7 @@
         <v>2500</v>
       </c>
       <c r="I221" s="9">
-        <f>H221*G221</f>
+        <f t="shared" si="3"/>
         <v>155000</v>
       </c>
     </row>
@@ -35719,7 +36457,7 @@
         <v>700</v>
       </c>
       <c r="I222" s="9">
-        <f>H222*G222</f>
+        <f t="shared" si="3"/>
         <v>44100</v>
       </c>
     </row>
@@ -35749,7 +36487,7 @@
         <v>1000</v>
       </c>
       <c r="I223" s="9">
-        <f>H223*G223</f>
+        <f t="shared" si="3"/>
         <v>55000</v>
       </c>
     </row>
@@ -35779,7 +36517,7 @@
         <v>1000</v>
       </c>
       <c r="I224" s="9">
-        <f>H224*G224</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
@@ -35809,7 +36547,7 @@
         <v>1500</v>
       </c>
       <c r="I225" s="9">
-        <f>H225*G225</f>
+        <f t="shared" si="3"/>
         <v>105000</v>
       </c>
     </row>
@@ -35839,7 +36577,7 @@
         <v>3000</v>
       </c>
       <c r="I226" s="9">
-        <f>H226*G226</f>
+        <f t="shared" si="3"/>
         <v>177000</v>
       </c>
     </row>
@@ -35869,7 +36607,7 @@
         <v>1000</v>
       </c>
       <c r="I227" s="9">
-        <f>H227*G227</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
     </row>
@@ -35899,7 +36637,7 @@
         <v>800</v>
       </c>
       <c r="I228" s="9">
-        <f>H228*G228</f>
+        <f t="shared" si="3"/>
         <v>72000</v>
       </c>
     </row>
@@ -35929,7 +36667,7 @@
         <v>5000</v>
       </c>
       <c r="I229" s="9">
-        <f>H229*G229</f>
+        <f t="shared" si="3"/>
         <v>375000</v>
       </c>
     </row>
@@ -35959,7 +36697,7 @@
         <v>1000</v>
       </c>
       <c r="I230" s="9">
-        <f>H230*G230</f>
+        <f t="shared" si="3"/>
         <v>77000</v>
       </c>
     </row>
@@ -35989,7 +36727,7 @@
         <v>1500</v>
       </c>
       <c r="I231" s="9">
-        <f>H231*G231</f>
+        <f t="shared" si="3"/>
         <v>121500</v>
       </c>
     </row>
@@ -36019,7 +36757,7 @@
         <v>1500</v>
       </c>
       <c r="I232" s="9">
-        <f>H232*G232</f>
+        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
     </row>
@@ -36049,7 +36787,7 @@
         <v>1000</v>
       </c>
       <c r="I233" s="9">
-        <f>H233*G233</f>
+        <f t="shared" si="3"/>
         <v>97000</v>
       </c>
     </row>
@@ -36079,7 +36817,7 @@
         <v>1500</v>
       </c>
       <c r="I234" s="9">
-        <f>H234*G234</f>
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
     </row>
@@ -36109,7 +36847,7 @@
         <v>1200</v>
       </c>
       <c r="I235" s="9">
-        <f>H235*G235</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -36139,7 +36877,7 @@
         <v>2500</v>
       </c>
       <c r="I236" s="9">
-        <f>H236*G236</f>
+        <f t="shared" si="3"/>
         <v>205000</v>
       </c>
     </row>
@@ -36169,7 +36907,7 @@
         <v>1300</v>
       </c>
       <c r="I237" s="9">
-        <f>H237*G237</f>
+        <f t="shared" si="3"/>
         <v>80600</v>
       </c>
     </row>
@@ -36199,7 +36937,7 @@
         <v>600</v>
       </c>
       <c r="I238" s="9">
-        <f>H238*G238</f>
+        <f t="shared" si="3"/>
         <v>60000</v>
       </c>
     </row>
@@ -36229,7 +36967,7 @@
         <v>1500</v>
       </c>
       <c r="I239" s="9">
-        <f>H239*G239</f>
+        <f t="shared" si="3"/>
         <v>93000</v>
       </c>
     </row>
@@ -36259,7 +36997,7 @@
         <v>500</v>
       </c>
       <c r="I240" s="9">
-        <f>H240*G240</f>
+        <f t="shared" si="3"/>
         <v>33500</v>
       </c>
     </row>
@@ -36289,7 +37027,7 @@
         <v>1500</v>
       </c>
       <c r="I241" s="9">
-        <f>H241*G241</f>
+        <f t="shared" si="3"/>
         <v>109500</v>
       </c>
     </row>
@@ -36319,7 +37057,7 @@
         <v>1500</v>
       </c>
       <c r="I242" s="9">
-        <f>H242*G242</f>
+        <f t="shared" si="3"/>
         <v>85500</v>
       </c>
     </row>
@@ -36349,7 +37087,7 @@
         <v>2800</v>
       </c>
       <c r="I243" s="9">
-        <f>H243*G243</f>
+        <f t="shared" si="3"/>
         <v>260400</v>
       </c>
     </row>
@@ -36379,7 +37117,7 @@
         <v>1500</v>
       </c>
       <c r="I244" s="9">
-        <f>H244*G244</f>
+        <f t="shared" si="3"/>
         <v>139500</v>
       </c>
     </row>
@@ -36409,7 +37147,7 @@
         <v>1000</v>
       </c>
       <c r="I245" s="9">
-        <f>H245*G245</f>
+        <f t="shared" si="3"/>
         <v>95000</v>
       </c>
     </row>
@@ -36439,7 +37177,7 @@
         <v>1800</v>
       </c>
       <c r="I246" s="9">
-        <f>H246*G246</f>
+        <f t="shared" si="3"/>
         <v>106200</v>
       </c>
     </row>
@@ -36469,7 +37207,7 @@
         <v>1000</v>
       </c>
       <c r="I247" s="9">
-        <f>H247*G247</f>
+        <f t="shared" si="3"/>
         <v>78000</v>
       </c>
     </row>
@@ -36499,7 +37237,7 @@
         <v>15000</v>
       </c>
       <c r="I248" s="9">
-        <f>H248*G248</f>
+        <f t="shared" si="3"/>
         <v>1020000</v>
       </c>
     </row>
@@ -36529,7 +37267,7 @@
         <v>1500</v>
       </c>
       <c r="I249" s="9">
-        <f>H249*G249</f>
+        <f t="shared" si="3"/>
         <v>111000</v>
       </c>
     </row>
@@ -36559,7 +37297,7 @@
         <v>2500</v>
       </c>
       <c r="I250" s="9">
-        <f>H250*G250</f>
+        <f t="shared" si="3"/>
         <v>215000</v>
       </c>
     </row>
@@ -36589,7 +37327,7 @@
         <v>1200</v>
       </c>
       <c r="I251" s="9">
-        <f>H251*G251</f>
+        <f t="shared" si="3"/>
         <v>66000</v>
       </c>
     </row>
@@ -36619,7 +37357,7 @@
         <v>1500</v>
       </c>
       <c r="I252" s="9">
-        <f>H252*G252</f>
+        <f t="shared" si="3"/>
         <v>81000</v>
       </c>
     </row>
@@ -36649,7 +37387,7 @@
         <v>1000</v>
       </c>
       <c r="I253" s="9">
-        <f>H253*G253</f>
+        <f t="shared" si="3"/>
         <v>85000</v>
       </c>
     </row>
@@ -36679,7 +37417,7 @@
         <v>1500</v>
       </c>
       <c r="I254" s="9">
-        <f>H254*G254</f>
+        <f t="shared" si="3"/>
         <v>130500</v>
       </c>
     </row>
@@ -36709,7 +37447,7 @@
         <v>1200</v>
       </c>
       <c r="I255" s="9">
-        <f>H255*G255</f>
+        <f t="shared" si="3"/>
         <v>111600</v>
       </c>
     </row>
@@ -36739,7 +37477,7 @@
         <v>1000</v>
       </c>
       <c r="I256" s="9">
-        <f>H256*G256</f>
+        <f t="shared" si="3"/>
         <v>88000</v>
       </c>
     </row>
@@ -36769,7 +37507,7 @@
         <v>5000</v>
       </c>
       <c r="I257" s="9">
-        <f>H257*G257</f>
+        <f t="shared" si="3"/>
         <v>460000</v>
       </c>
     </row>
@@ -36799,7 +37537,7 @@
         <v>500</v>
       </c>
       <c r="I258" s="9">
-        <f>H258*G258</f>
+        <f t="shared" ref="I258:I321" si="4">H258*G258</f>
         <v>38500</v>
       </c>
     </row>
@@ -36829,7 +37567,7 @@
         <v>1500</v>
       </c>
       <c r="I259" s="9">
-        <f>H259*G259</f>
+        <f t="shared" si="4"/>
         <v>133500</v>
       </c>
     </row>
@@ -36859,7 +37597,7 @@
         <v>1000</v>
       </c>
       <c r="I260" s="13">
-        <f>H260*G260</f>
+        <f t="shared" si="4"/>
         <v>77000</v>
       </c>
     </row>
@@ -36877,7 +37615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -40045,4 +40783,3585 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F237"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2" s="15" t="str">
+        <f ca="1">"010-"&amp;TEXT(RANDBETWEEN(1000,9999),"0000")&amp;"-"&amp;TEXT(RANDBETWEEN(1000,9999),"0000")</f>
+        <v>010-9649-5193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="15" t="str">
+        <f t="shared" ref="D3:D66" ca="1" si="0">"010-"&amp;TEXT(RANDBETWEEN(1000,9999),"0000")&amp;"-"&amp;TEXT(RANDBETWEEN(1000,9999),"0000")</f>
+        <v>010-9352-1769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-2546-5620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D5" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-2100-9183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-3576-3730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7" t="s">
+        <v>526</v>
+      </c>
+      <c r="D7" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-9818-4275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-4826-2620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C9" t="s">
+        <v>528</v>
+      </c>
+      <c r="D9" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-7724-1653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-3000-6953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-9769-8347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D12" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-3657-7317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B13" t="s">
+        <v>543</v>
+      </c>
+      <c r="C13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D13" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-1038-8055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C14" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-4264-7089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B15" t="s">
+        <v>569</v>
+      </c>
+      <c r="C15" t="s">
+        <v>570</v>
+      </c>
+      <c r="D15" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-1190-5687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-2480-5374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-2487-5313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B18" t="s">
+        <v>678</v>
+      </c>
+      <c r="C18" t="s">
+        <v>679</v>
+      </c>
+      <c r="D18" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-4922-2935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-8205-6085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" t="s">
+        <v>426</v>
+      </c>
+      <c r="D20" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-4901-5249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-7056-3804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-1415-2277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B23" t="s">
+        <v>766</v>
+      </c>
+      <c r="C23" t="s">
+        <v>767</v>
+      </c>
+      <c r="D23" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-4921-8896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B24" t="s">
+        <v>786</v>
+      </c>
+      <c r="C24" t="s">
+        <v>787</v>
+      </c>
+      <c r="D24" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-8272-6400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B25" t="s">
+        <v>724</v>
+      </c>
+      <c r="C25" t="s">
+        <v>725</v>
+      </c>
+      <c r="D25" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-1922-6491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B26" t="s">
+        <v>727</v>
+      </c>
+      <c r="C26" t="s">
+        <v>728</v>
+      </c>
+      <c r="D26" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-5905-5235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-6553-4437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-3973-7557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-6365-5929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-5853-1739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D31" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-7798-4213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-3469-9149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C33" t="s">
+        <v>411</v>
+      </c>
+      <c r="D33" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-5878-7800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B34" t="s">
+        <v>446</v>
+      </c>
+      <c r="C34" t="s">
+        <v>447</v>
+      </c>
+      <c r="D34" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-4194-7630</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B35" t="s">
+        <v>452</v>
+      </c>
+      <c r="C35" t="s">
+        <v>453</v>
+      </c>
+      <c r="D35" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-3568-5121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B36" t="s">
+        <v>510</v>
+      </c>
+      <c r="C36" t="s">
+        <v>511</v>
+      </c>
+      <c r="D36" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-3883-9358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-1070-6850</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-8184-8216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-5802-9953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B40" t="s">
+        <v>388</v>
+      </c>
+      <c r="C40" t="s">
+        <v>389</v>
+      </c>
+      <c r="D40" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-3227-7456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B41" t="s">
+        <v>265</v>
+      </c>
+      <c r="C41" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-5751-8070</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-2245-4879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B43" t="s">
+        <v>463</v>
+      </c>
+      <c r="C43" t="s">
+        <v>464</v>
+      </c>
+      <c r="D43" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-5646-8061</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B44" t="s">
+        <v>469</v>
+      </c>
+      <c r="C44" t="s">
+        <v>470</v>
+      </c>
+      <c r="D44" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-5935-8870</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B45" t="s">
+        <v>490</v>
+      </c>
+      <c r="C45" t="s">
+        <v>491</v>
+      </c>
+      <c r="D45" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-5485-4849</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B46" t="s">
+        <v>428</v>
+      </c>
+      <c r="C46" t="s">
+        <v>429</v>
+      </c>
+      <c r="D46" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-5980-8896</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-7664-9934</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-6746-8360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-6000-8772</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B50" t="s">
+        <v>567</v>
+      </c>
+      <c r="C50" t="s">
+        <v>568</v>
+      </c>
+      <c r="D50" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-4087-9078</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B51" t="s">
+        <v>440</v>
+      </c>
+      <c r="C51" t="s">
+        <v>441</v>
+      </c>
+      <c r="D51" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-8009-1233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B52" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D52" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-1473-8160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-4283-8501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B54" t="s">
+        <v>781</v>
+      </c>
+      <c r="C54" t="s">
+        <v>782</v>
+      </c>
+      <c r="D54" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-9755-3202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-8082-6095</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-8550-4453</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-7097-1237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B58" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58" t="s">
+        <v>315</v>
+      </c>
+      <c r="D58" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-5360-2407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B59" t="s">
+        <v>443</v>
+      </c>
+      <c r="C59" t="s">
+        <v>444</v>
+      </c>
+      <c r="D59" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-5519-5361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B60" t="s">
+        <v>642</v>
+      </c>
+      <c r="C60" t="s">
+        <v>643</v>
+      </c>
+      <c r="D60" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-8706-6256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B61" t="s">
+        <v>648</v>
+      </c>
+      <c r="C61" t="s">
+        <v>649</v>
+      </c>
+      <c r="D61" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-1945-7892</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B62" t="s">
+        <v>801</v>
+      </c>
+      <c r="C62" t="s">
+        <v>802</v>
+      </c>
+      <c r="D62" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-2213-8945</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B63" t="s">
+        <v>819</v>
+      </c>
+      <c r="C63" t="s">
+        <v>820</v>
+      </c>
+      <c r="D63" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-5590-9552</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-8760-1966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B65" t="s">
+        <v>466</v>
+      </c>
+      <c r="C65" t="s">
+        <v>467</v>
+      </c>
+      <c r="D65" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-4390-9074</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B66" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>010-7984-6686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B67" t="s">
+        <v>472</v>
+      </c>
+      <c r="C67" t="s">
+        <v>473</v>
+      </c>
+      <c r="D67" s="15" t="str">
+        <f t="shared" ref="D67:D130" ca="1" si="1">"010-"&amp;TEXT(RANDBETWEEN(1000,9999),"0000")&amp;"-"&amp;TEXT(RANDBETWEEN(1000,9999),"0000")</f>
+        <v>010-3220-6016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4986-2508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B69" t="s">
+        <v>361</v>
+      </c>
+      <c r="C69" t="s">
+        <v>362</v>
+      </c>
+      <c r="D69" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-6470-2809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B70" t="s">
+        <v>480</v>
+      </c>
+      <c r="C70" t="s">
+        <v>481</v>
+      </c>
+      <c r="D70" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2042-2708</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B71" t="s">
+        <v>483</v>
+      </c>
+      <c r="C71" t="s">
+        <v>484</v>
+      </c>
+      <c r="D71" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-1878-8701</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B72" t="s">
+        <v>487</v>
+      </c>
+      <c r="C72" t="s">
+        <v>488</v>
+      </c>
+      <c r="D72" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-5903-1450</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B73" t="s">
+        <v>325</v>
+      </c>
+      <c r="C73" t="s">
+        <v>326</v>
+      </c>
+      <c r="D73" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-6158-6961</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B74" t="s">
+        <v>584</v>
+      </c>
+      <c r="C74" t="s">
+        <v>585</v>
+      </c>
+      <c r="D74" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4241-5342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B75" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7278-2094</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B76" t="s">
+        <v>602</v>
+      </c>
+      <c r="C76" t="s">
+        <v>603</v>
+      </c>
+      <c r="D76" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-6729-7895</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B77" t="s">
+        <v>616</v>
+      </c>
+      <c r="C77" t="s">
+        <v>617</v>
+      </c>
+      <c r="D77" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4132-2915</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-1177-9003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B79" t="s">
+        <v>334</v>
+      </c>
+      <c r="C79" t="s">
+        <v>335</v>
+      </c>
+      <c r="D79" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8703-9692</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B80" t="s">
+        <v>695</v>
+      </c>
+      <c r="C80" t="s">
+        <v>696</v>
+      </c>
+      <c r="D80" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8337-9181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7602-5624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B82" t="s">
+        <v>778</v>
+      </c>
+      <c r="C82" t="s">
+        <v>779</v>
+      </c>
+      <c r="D82" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2372-2780</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B83" t="s">
+        <v>416</v>
+      </c>
+      <c r="C83" t="s">
+        <v>417</v>
+      </c>
+      <c r="D83" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4312-1776</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B84" t="s">
+        <v>454</v>
+      </c>
+      <c r="C84" t="s">
+        <v>455</v>
+      </c>
+      <c r="D84" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-1969-1853</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B85" t="s">
+        <v>625</v>
+      </c>
+      <c r="C85" t="s">
+        <v>626</v>
+      </c>
+      <c r="D85" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-5533-6304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7379-8152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D87" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7119-4450</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B88" t="s">
+        <v>225</v>
+      </c>
+      <c r="C88" t="s">
+        <v>226</v>
+      </c>
+      <c r="D88" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2672-7521</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B89" t="s">
+        <v>251</v>
+      </c>
+      <c r="C89" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-1042-8906</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B90" t="s">
+        <v>302</v>
+      </c>
+      <c r="C90" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4010-9463</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B91" t="s">
+        <v>317</v>
+      </c>
+      <c r="C91" t="s">
+        <v>318</v>
+      </c>
+      <c r="D91" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3154-7298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B92" t="s">
+        <v>562</v>
+      </c>
+      <c r="C92" t="s">
+        <v>563</v>
+      </c>
+      <c r="D92" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-6019-2605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B93" t="s">
+        <v>737</v>
+      </c>
+      <c r="C93" t="s">
+        <v>738</v>
+      </c>
+      <c r="D93" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7394-7787</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B94" t="s">
+        <v>822</v>
+      </c>
+      <c r="C94" t="s">
+        <v>823</v>
+      </c>
+      <c r="D94" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4074-8000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B95" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-6730-6629</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B96" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" t="s">
+        <v>294</v>
+      </c>
+      <c r="D96" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2701-8290</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B97" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" t="s">
+        <v>378</v>
+      </c>
+      <c r="D97" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2515-7725</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B98" t="s">
+        <v>364</v>
+      </c>
+      <c r="C98" t="s">
+        <v>365</v>
+      </c>
+      <c r="D98" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9536-9513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B99" t="s">
+        <v>368</v>
+      </c>
+      <c r="C99" t="s">
+        <v>392</v>
+      </c>
+      <c r="D99" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4853-1170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-1739-5333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B101" t="s">
+        <v>496</v>
+      </c>
+      <c r="C101" t="s">
+        <v>497</v>
+      </c>
+      <c r="D101" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-5737-6849</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B102" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7588-8274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B103" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4985-8370</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B104" t="s">
+        <v>546</v>
+      </c>
+      <c r="C104" t="s">
+        <v>547</v>
+      </c>
+      <c r="D104" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-1317-3197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B105" t="s">
+        <v>549</v>
+      </c>
+      <c r="C105" t="s">
+        <v>550</v>
+      </c>
+      <c r="D105" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3801-1964</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B106" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" t="s">
+        <v>187</v>
+      </c>
+      <c r="D106" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8519-1966</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B107" t="s">
+        <v>85</v>
+      </c>
+      <c r="C107" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8502-1099</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B108" t="s">
+        <v>576</v>
+      </c>
+      <c r="C108" t="s">
+        <v>577</v>
+      </c>
+      <c r="D108" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-3981-5639</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B109" t="s">
+        <v>587</v>
+      </c>
+      <c r="C109" t="s">
+        <v>588</v>
+      </c>
+      <c r="D109" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-5615-3908</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2985-2758</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B111" t="s">
+        <v>258</v>
+      </c>
+      <c r="C111" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-5304-7230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B112" t="s">
+        <v>358</v>
+      </c>
+      <c r="C112" t="s">
+        <v>359</v>
+      </c>
+      <c r="D112" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8257-1809</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B113" t="s">
+        <v>704</v>
+      </c>
+      <c r="C113" t="s">
+        <v>705</v>
+      </c>
+      <c r="D113" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7188-6470</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B114" t="s">
+        <v>759</v>
+      </c>
+      <c r="C114" t="s">
+        <v>760</v>
+      </c>
+      <c r="D114" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2318-4525</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B115" t="s">
+        <v>422</v>
+      </c>
+      <c r="C115" t="s">
+        <v>423</v>
+      </c>
+      <c r="D115" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8794-5205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B116" t="s">
+        <v>788</v>
+      </c>
+      <c r="C116" t="s">
+        <v>789</v>
+      </c>
+      <c r="D116" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4862-8920</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B117" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117" t="s">
+        <v>341</v>
+      </c>
+      <c r="D117" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2721-9464</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B118" t="s">
+        <v>858</v>
+      </c>
+      <c r="C118" t="s">
+        <v>859</v>
+      </c>
+      <c r="D118" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8924-3874</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B119" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" t="s">
+        <v>288</v>
+      </c>
+      <c r="D119" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-1595-9210</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B120" t="s">
+        <v>193</v>
+      </c>
+      <c r="C120" t="s">
+        <v>194</v>
+      </c>
+      <c r="D120" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2683-1020</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" t="s">
+        <v>242</v>
+      </c>
+      <c r="D121" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7278-8161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B122" t="s">
+        <v>431</v>
+      </c>
+      <c r="C122" t="s">
+        <v>432</v>
+      </c>
+      <c r="D122" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7475-7858</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B123" t="s">
+        <v>645</v>
+      </c>
+      <c r="C123" t="s">
+        <v>646</v>
+      </c>
+      <c r="D123" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8247-3349</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B124" t="s">
+        <v>652</v>
+      </c>
+      <c r="C124" t="s">
+        <v>653</v>
+      </c>
+      <c r="D124" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-4837-4208</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B125" t="s">
+        <v>753</v>
+      </c>
+      <c r="C125" t="s">
+        <v>754</v>
+      </c>
+      <c r="D125" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-2686-7870</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B126" t="s">
+        <v>160</v>
+      </c>
+      <c r="C126" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7312-5854</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B127" t="s">
+        <v>458</v>
+      </c>
+      <c r="C127" t="s">
+        <v>459</v>
+      </c>
+      <c r="D127" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8854-5638</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B128" t="s">
+        <v>413</v>
+      </c>
+      <c r="C128" t="s">
+        <v>414</v>
+      </c>
+      <c r="D128" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-7976-3995</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B129" t="s">
+        <v>573</v>
+      </c>
+      <c r="C129" t="s">
+        <v>574</v>
+      </c>
+      <c r="D129" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-9553-9882</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B130" t="s">
+        <v>581</v>
+      </c>
+      <c r="C130" t="s">
+        <v>582</v>
+      </c>
+      <c r="D130" s="15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>010-8829-6218</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B131" t="s">
+        <v>593</v>
+      </c>
+      <c r="C131" t="s">
+        <v>594</v>
+      </c>
+      <c r="D131" s="15" t="str">
+        <f t="shared" ref="D131:D194" ca="1" si="2">"010-"&amp;TEXT(RANDBETWEEN(1000,9999),"0000")&amp;"-"&amp;TEXT(RANDBETWEEN(1000,9999),"0000")</f>
+        <v>010-9999-7968</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B132" t="s">
+        <v>598</v>
+      </c>
+      <c r="C132" t="s">
+        <v>599</v>
+      </c>
+      <c r="D132" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-7322-2243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B133" t="s">
+        <v>605</v>
+      </c>
+      <c r="C133" t="s">
+        <v>606</v>
+      </c>
+      <c r="D133" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-8077-9853</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B134" t="s">
+        <v>668</v>
+      </c>
+      <c r="C134" t="s">
+        <v>669</v>
+      </c>
+      <c r="D134" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-7415-9243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B135" t="s">
+        <v>671</v>
+      </c>
+      <c r="C135" t="s">
+        <v>672</v>
+      </c>
+      <c r="D135" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-9773-1600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B136" t="s">
+        <v>697</v>
+      </c>
+      <c r="C136" t="s">
+        <v>698</v>
+      </c>
+      <c r="D136" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-3240-8966</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B137" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" t="s">
+        <v>61</v>
+      </c>
+      <c r="D137" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-5870-5275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B138" t="s">
+        <v>739</v>
+      </c>
+      <c r="C138" t="s">
+        <v>740</v>
+      </c>
+      <c r="D138" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-8957-3792</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-1067-2601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B140" t="s">
+        <v>747</v>
+      </c>
+      <c r="C140" t="s">
+        <v>748</v>
+      </c>
+      <c r="D140" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-2979-9674</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B141" t="s">
+        <v>276</v>
+      </c>
+      <c r="C141" t="s">
+        <v>277</v>
+      </c>
+      <c r="D141" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-8906-1135</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B142" t="s">
+        <v>841</v>
+      </c>
+      <c r="C142" t="s">
+        <v>842</v>
+      </c>
+      <c r="D142" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-6724-2563</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143" t="s">
+        <v>40</v>
+      </c>
+      <c r="D143" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-3495-1298</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B144" t="s">
+        <v>849</v>
+      </c>
+      <c r="C144" t="s">
+        <v>850</v>
+      </c>
+      <c r="D144" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-5043-3336</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B145" t="s">
+        <v>202</v>
+      </c>
+      <c r="C145" t="s">
+        <v>203</v>
+      </c>
+      <c r="D145" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-9067-3384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B146" t="s">
+        <v>853</v>
+      </c>
+      <c r="C146" t="s">
+        <v>854</v>
+      </c>
+      <c r="D146" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-1385-3086</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B147" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-2602-6527</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B148" t="s">
+        <v>42</v>
+      </c>
+      <c r="C148" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-5895-8367</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B149" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" t="s">
+        <v>55</v>
+      </c>
+      <c r="D149" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-6653-1186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B150" t="s">
+        <v>67</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-2005-8935</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B151" t="s">
+        <v>235</v>
+      </c>
+      <c r="C151" t="s">
+        <v>236</v>
+      </c>
+      <c r="D151" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-5213-6031</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B152" t="s">
+        <v>299</v>
+      </c>
+      <c r="C152" t="s">
+        <v>300</v>
+      </c>
+      <c r="D152" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-6660-6544</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B153" t="s">
+        <v>403</v>
+      </c>
+      <c r="C153" t="s">
+        <v>404</v>
+      </c>
+      <c r="D153" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-3713-6219</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B154" t="s">
+        <v>437</v>
+      </c>
+      <c r="C154" t="s">
+        <v>438</v>
+      </c>
+      <c r="D154" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-5198-2263</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B155" t="s">
+        <v>503</v>
+      </c>
+      <c r="C155" t="s">
+        <v>504</v>
+      </c>
+      <c r="D155" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-1706-1689</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B156" t="s">
+        <v>516</v>
+      </c>
+      <c r="C156" t="s">
+        <v>517</v>
+      </c>
+      <c r="D156" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-1220-4457</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B157" t="s">
+        <v>658</v>
+      </c>
+      <c r="C157" t="s">
+        <v>659</v>
+      </c>
+      <c r="D157" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-1904-7412</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B158" t="s">
+        <v>350</v>
+      </c>
+      <c r="C158" t="s">
+        <v>351</v>
+      </c>
+      <c r="D158" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-9836-9293</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B159" t="s">
+        <v>812</v>
+      </c>
+      <c r="C159" t="s">
+        <v>813</v>
+      </c>
+      <c r="D159" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-9763-7061</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B160" t="s">
+        <v>864</v>
+      </c>
+      <c r="C160" t="s">
+        <v>865</v>
+      </c>
+      <c r="D160" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-7527-5093</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B161" t="s">
+        <v>100</v>
+      </c>
+      <c r="C161" t="s">
+        <v>101</v>
+      </c>
+      <c r="D161" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-5464-8796</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B162" t="s">
+        <v>156</v>
+      </c>
+      <c r="C162" t="s">
+        <v>157</v>
+      </c>
+      <c r="D162" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-1041-6848</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B163" t="s">
+        <v>270</v>
+      </c>
+      <c r="C163" t="s">
+        <v>271</v>
+      </c>
+      <c r="D163" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-7572-6320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B164" t="s">
+        <v>345</v>
+      </c>
+      <c r="C164" t="s">
+        <v>346</v>
+      </c>
+      <c r="D164" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-1322-3149</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B165" t="s">
+        <v>385</v>
+      </c>
+      <c r="C165" t="s">
+        <v>386</v>
+      </c>
+      <c r="D165" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-6485-1666</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B166" t="s">
+        <v>501</v>
+      </c>
+      <c r="C166" t="s">
+        <v>502</v>
+      </c>
+      <c r="D166" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-3293-8266</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B167" t="s">
+        <v>522</v>
+      </c>
+      <c r="C167" t="s">
+        <v>523</v>
+      </c>
+      <c r="D167" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-1365-5379</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B168" t="s">
+        <v>328</v>
+      </c>
+      <c r="C168" t="s">
+        <v>329</v>
+      </c>
+      <c r="D168" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-7290-7089</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B169" t="s">
+        <v>249</v>
+      </c>
+      <c r="C169" t="s">
+        <v>250</v>
+      </c>
+      <c r="D169" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-3417-3206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B170" t="s">
+        <v>621</v>
+      </c>
+      <c r="C170" t="s">
+        <v>622</v>
+      </c>
+      <c r="D170" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-9253-4711</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B171" t="s">
+        <v>434</v>
+      </c>
+      <c r="C171" t="s">
+        <v>435</v>
+      </c>
+      <c r="D171" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-1271-3934</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B172" t="s">
+        <v>774</v>
+      </c>
+      <c r="C172" t="s">
+        <v>775</v>
+      </c>
+      <c r="D172" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-5377-2163</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B173" t="s">
+        <v>796</v>
+      </c>
+      <c r="C173" t="s">
+        <v>797</v>
+      </c>
+      <c r="D173" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-6110-3557</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B174" t="s">
+        <v>506</v>
+      </c>
+      <c r="C174" t="s">
+        <v>507</v>
+      </c>
+      <c r="D174" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-4950-6900</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B175" t="s">
+        <v>847</v>
+      </c>
+      <c r="C175" t="s">
+        <v>848</v>
+      </c>
+      <c r="D175" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-4954-9580</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B176" t="s">
+        <v>513</v>
+      </c>
+      <c r="C176" t="s">
+        <v>514</v>
+      </c>
+      <c r="D176" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-5754-8113</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B177" t="s">
+        <v>104</v>
+      </c>
+      <c r="C177" t="s">
+        <v>105</v>
+      </c>
+      <c r="D177" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-2060-3961</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B178" t="s">
+        <v>131</v>
+      </c>
+      <c r="C178" t="s">
+        <v>132</v>
+      </c>
+      <c r="D178" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-5312-2053</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B179" t="s">
+        <v>153</v>
+      </c>
+      <c r="C179" t="s">
+        <v>154</v>
+      </c>
+      <c r="D179" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-9006-3252</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B180" t="s">
+        <v>306</v>
+      </c>
+      <c r="C180" t="s">
+        <v>307</v>
+      </c>
+      <c r="D180" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-6511-7760</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B181" t="s">
+        <v>48</v>
+      </c>
+      <c r="C181" t="s">
+        <v>49</v>
+      </c>
+      <c r="D181" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-1008-4843</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B182" t="s">
+        <v>636</v>
+      </c>
+      <c r="C182" t="s">
+        <v>637</v>
+      </c>
+      <c r="D182" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-2421-4298</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B183" t="s">
+        <v>718</v>
+      </c>
+      <c r="C183" t="s">
+        <v>719</v>
+      </c>
+      <c r="D183" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-3751-7519</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B184" t="s">
+        <v>825</v>
+      </c>
+      <c r="C184" t="s">
+        <v>826</v>
+      </c>
+      <c r="D184" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-7409-5557</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B185" t="s">
+        <v>828</v>
+      </c>
+      <c r="C185" t="s">
+        <v>829</v>
+      </c>
+      <c r="D185" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-2766-4704</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B186" t="s">
+        <v>374</v>
+      </c>
+      <c r="C186" t="s">
+        <v>375</v>
+      </c>
+      <c r="D186" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-7880-7015</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B187" t="s">
+        <v>215</v>
+      </c>
+      <c r="C187" t="s">
+        <v>216</v>
+      </c>
+      <c r="D187" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-8437-3740</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-7914-2495</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B189" t="s">
+        <v>519</v>
+      </c>
+      <c r="C189" t="s">
+        <v>520</v>
+      </c>
+      <c r="D189" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-1538-3100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B190" t="s">
+        <v>531</v>
+      </c>
+      <c r="C190" t="s">
+        <v>532</v>
+      </c>
+      <c r="D190" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-3563-4877</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B191" t="s">
+        <v>555</v>
+      </c>
+      <c r="C191" t="s">
+        <v>556</v>
+      </c>
+      <c r="D191" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-1913-2664</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B192" t="s">
+        <v>218</v>
+      </c>
+      <c r="C192" t="s">
+        <v>219</v>
+      </c>
+      <c r="D192" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-6860-2914</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B193" t="s">
+        <v>560</v>
+      </c>
+      <c r="C193" t="s">
+        <v>561</v>
+      </c>
+      <c r="D193" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-8179-9878</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B194" t="s">
+        <v>682</v>
+      </c>
+      <c r="C194" t="s">
+        <v>683</v>
+      </c>
+      <c r="D194" s="15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>010-2720-4637</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B195" t="s">
+        <v>684</v>
+      </c>
+      <c r="C195" t="s">
+        <v>685</v>
+      </c>
+      <c r="D195" s="15" t="str">
+        <f t="shared" ref="D195:D237" ca="1" si="3">"010-"&amp;TEXT(RANDBETWEEN(1000,9999),"0000")&amp;"-"&amp;TEXT(RANDBETWEEN(1000,9999),"0000")</f>
+        <v>010-5746-1339</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B196" t="s">
+        <v>630</v>
+      </c>
+      <c r="C196" t="s">
+        <v>631</v>
+      </c>
+      <c r="D196" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-7923-1156</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B197" t="s">
+        <v>639</v>
+      </c>
+      <c r="C197" t="s">
+        <v>640</v>
+      </c>
+      <c r="D197" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-4620-8529</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B198" t="s">
+        <v>762</v>
+      </c>
+      <c r="C198" t="s">
+        <v>763</v>
+      </c>
+      <c r="D198" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-8288-7964</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B199" t="s">
+        <v>368</v>
+      </c>
+      <c r="C199" t="s">
+        <v>369</v>
+      </c>
+      <c r="D199" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-1727-8557</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B200" t="s">
+        <v>88</v>
+      </c>
+      <c r="C200" t="s">
+        <v>89</v>
+      </c>
+      <c r="D200" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-2105-3469</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B201" t="s">
+        <v>110</v>
+      </c>
+      <c r="C201" t="s">
+        <v>111</v>
+      </c>
+      <c r="D201" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-2805-8358</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B202" t="s">
+        <v>134</v>
+      </c>
+      <c r="C202" t="s">
+        <v>135</v>
+      </c>
+      <c r="D202" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-5433-9491</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B203" t="s">
+        <v>183</v>
+      </c>
+      <c r="C203" t="s">
+        <v>184</v>
+      </c>
+      <c r="D203" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-9565-5237</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B204" t="s">
+        <v>296</v>
+      </c>
+      <c r="C204" t="s">
+        <v>297</v>
+      </c>
+      <c r="D204" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-9361-5311</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B205" t="s">
+        <v>420</v>
+      </c>
+      <c r="C205" t="s">
+        <v>421</v>
+      </c>
+      <c r="D205" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-6947-7599</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B206" t="s">
+        <v>273</v>
+      </c>
+      <c r="C206" t="s">
+        <v>274</v>
+      </c>
+      <c r="D206" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-6161-1333</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B207" t="s">
+        <v>449</v>
+      </c>
+      <c r="C207" t="s">
+        <v>450</v>
+      </c>
+      <c r="D207" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-1967-7060</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B208" t="s">
+        <v>189</v>
+      </c>
+      <c r="C208" t="s">
+        <v>190</v>
+      </c>
+      <c r="D208" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-9967-1558</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B209" t="s">
+        <v>655</v>
+      </c>
+      <c r="C209" t="s">
+        <v>656</v>
+      </c>
+      <c r="D209" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-6862-7181</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B210" t="s">
+        <v>279</v>
+      </c>
+      <c r="C210" t="s">
+        <v>280</v>
+      </c>
+      <c r="D210" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-7860-2668</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B211" t="s">
+        <v>282</v>
+      </c>
+      <c r="C211" t="s">
+        <v>283</v>
+      </c>
+      <c r="D211" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-3317-8518</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B212" t="s">
+        <v>337</v>
+      </c>
+      <c r="C212" t="s">
+        <v>338</v>
+      </c>
+      <c r="D212" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-7606-6243</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B213" t="s">
+        <v>591</v>
+      </c>
+      <c r="C213" t="s">
+        <v>592</v>
+      </c>
+      <c r="D213" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-4695-9765</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B214" t="s">
+        <v>150</v>
+      </c>
+      <c r="C214" t="s">
+        <v>151</v>
+      </c>
+      <c r="D214" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-7105-5108</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B215" t="s">
+        <v>609</v>
+      </c>
+      <c r="C215" t="s">
+        <v>610</v>
+      </c>
+      <c r="D215" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-9875-3898</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B216" t="s">
+        <v>396</v>
+      </c>
+      <c r="C216" t="s">
+        <v>397</v>
+      </c>
+      <c r="D216" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-3829-3906</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B217" t="s">
+        <v>79</v>
+      </c>
+      <c r="C217" t="s">
+        <v>80</v>
+      </c>
+      <c r="D217" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-2645-2593</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B218" t="s">
+        <v>665</v>
+      </c>
+      <c r="C218" t="s">
+        <v>666</v>
+      </c>
+      <c r="D218" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-7960-1857</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B219" t="s">
+        <v>674</v>
+      </c>
+      <c r="C219" t="s">
+        <v>675</v>
+      </c>
+      <c r="D219" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-4819-5599</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B220" t="s">
+        <v>834</v>
+      </c>
+      <c r="C220" t="s">
+        <v>835</v>
+      </c>
+      <c r="D220" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-2198-9728</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B221" t="s">
+        <v>36</v>
+      </c>
+      <c r="C221" t="s">
+        <v>37</v>
+      </c>
+      <c r="D221" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-7790-9155</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B222" t="s">
+        <v>21</v>
+      </c>
+      <c r="C222" t="s">
+        <v>22</v>
+      </c>
+      <c r="D222" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-6787-6889</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B223" t="s">
+        <v>51</v>
+      </c>
+      <c r="C223" t="s">
+        <v>52</v>
+      </c>
+      <c r="D223" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-9529-4736</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B224" t="s">
+        <v>137</v>
+      </c>
+      <c r="C224" t="s">
+        <v>138</v>
+      </c>
+      <c r="D224" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-7673-9453</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B225" t="s">
+        <v>229</v>
+      </c>
+      <c r="C225" t="s">
+        <v>230</v>
+      </c>
+      <c r="D225" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-1952-9665</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B226" t="s">
+        <v>331</v>
+      </c>
+      <c r="C226" t="s">
+        <v>332</v>
+      </c>
+      <c r="D226" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-4228-8909</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B227" t="s">
+        <v>399</v>
+      </c>
+      <c r="C227" t="s">
+        <v>400</v>
+      </c>
+      <c r="D227" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-3716-1324</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B228" t="s">
+        <v>407</v>
+      </c>
+      <c r="C228" t="s">
+        <v>408</v>
+      </c>
+      <c r="D228" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-1556-6750</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B229" t="s">
+        <v>285</v>
+      </c>
+      <c r="C229" t="s">
+        <v>286</v>
+      </c>
+      <c r="D229" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-4420-1536</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B230" t="s">
+        <v>711</v>
+      </c>
+      <c r="C230" t="s">
+        <v>712</v>
+      </c>
+      <c r="D230" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-4529-5515</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B231" t="s">
+        <v>714</v>
+      </c>
+      <c r="C231" t="s">
+        <v>715</v>
+      </c>
+      <c r="D231" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-9384-2733</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B232" t="s">
+        <v>125</v>
+      </c>
+      <c r="C232" t="s">
+        <v>126</v>
+      </c>
+      <c r="D232" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-7654-2750</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B233" t="s">
+        <v>731</v>
+      </c>
+      <c r="C233" t="s">
+        <v>732</v>
+      </c>
+      <c r="D233" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-2503-5323</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B234" t="s">
+        <v>809</v>
+      </c>
+      <c r="C234" t="s">
+        <v>810</v>
+      </c>
+      <c r="D234" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-8848-5983</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B235" t="s">
+        <v>875</v>
+      </c>
+      <c r="C235" t="s">
+        <v>876</v>
+      </c>
+      <c r="D235" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-2956-7914</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B236" t="s">
+        <v>122</v>
+      </c>
+      <c r="C236" t="s">
+        <v>123</v>
+      </c>
+      <c r="D236" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-5294-8518</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B237" t="s">
+        <v>353</v>
+      </c>
+      <c r="C237" t="s">
+        <v>354</v>
+      </c>
+      <c r="D237" s="15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>010-6701-6045</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>